--- a/reports/clslab-liquid-bom.xlsx
+++ b/reports/clslab-liquid-bom.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\sparks-baird\self-driving-lab-demo\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F87488C2-03D8-454C-84D9-D1E89462BCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC437BF8-BCF2-4E72-BD52-F775F288A268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="bill-of-materials" sheetId="1" r:id="rId1"/>
+    <sheet name="extras-alternatives" sheetId="3" r:id="rId2"/>
+    <sheet name="key" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bill-of-materials'!$A$1:$H$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +45,103 @@
     <author>Sterling Baird</author>
   </authors>
   <commentList>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{73BBF5A2-8AC7-47B9-BDAA-A03FE0DEB7D3}">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{8BF7E175-44C1-411B-BAF5-1B809E7A0E08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2 mm ID also available (6.99 for 5 ft), 6 mm OD available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{B1583AB1-11CF-4FBB-BDAF-297BA349DDB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+20 cm also available https://www.digikey.com/en/products/detail/seeed-technology-co.,-ltd/110990027/5482567</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{EE830F69-BA81-4FA0-80EB-F66E50F8DBB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Lots of stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{0039889F-E207-4F68-AE59-28278C393A81}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Could replace with stacking headers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F36" authorId="0" shapeId="0" xr:uid="{73BBF5A2-8AC7-47B9-BDAA-A03FE0DEB7D3}">
       <text>
         <r>
           <rPr>
@@ -70,8 +170,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sterling Baird</author>
+  </authors>
+  <commentList>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{40D42F2B-A357-45AF-B228-B53CA4F4BD42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+out of stock</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
   <si>
     <t>Sculpting wire</t>
   </si>
@@ -97,63 +231,27 @@
     <t>Distributor</t>
   </si>
   <si>
-    <t>Samsung EVO Plus 32 GB Micro SD, pack of 5</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/product/B07NP96DX5</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/product/B0B11VW3NG</t>
   </si>
   <si>
     <t>Maker Pi Pico Base</t>
   </si>
   <si>
-    <t>Adafruit</t>
-  </si>
-  <si>
     <t>Grove to STEMMA QT</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/product/5160</t>
-  </si>
-  <si>
     <t>https://www.adafruit.com/product/4528</t>
   </si>
   <si>
-    <t>USB MicroSD Card Reader/Writer</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/939</t>
-  </si>
-  <si>
     <t>USB cable - USB A to Micro-B - 3 foot long</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/product/592</t>
-  </si>
-  <si>
     <t>Adafruit AS7341 10-Channel Light / Color Sensor</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/product/4698</t>
-  </si>
-  <si>
     <t>Raspberry Pi Pico W</t>
   </si>
   <si>
-    <t>http://www.canakit.com/raspberry-pi-pico-w-board.html</t>
-  </si>
-  <si>
-    <t>Canakit</t>
-  </si>
-  <si>
-    <t>Set of 2 x 20-pin Headers for Raspberry Pi Pico</t>
-  </si>
-  <si>
-    <t>http://www.canakit.com/set-of-2-20-pin-headers-for-raspberry-pi-pico.html</t>
-  </si>
-  <si>
     <t>Shipping Cost</t>
   </si>
   <si>
@@ -166,22 +264,214 @@
     <t>https://www.pishop.us/product/raspberry-pi-pico-w/</t>
   </si>
   <si>
-    <t>Canakit shipping</t>
-  </si>
-  <si>
     <t>(with Amazon Prime I think, but maybe still free without)</t>
   </si>
   <si>
-    <t>USB to TTL Serial Cable - Debug / Console Cable for Raspberry Pi</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/954</t>
-  </si>
-  <si>
-    <t>5V 2.5A Switching Power Supply with 20AWG MicroUSB Cable</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/1995</t>
+    <t>https://www.digikey.com/en/products/detail/cytron-technologies-sdn-bhd/MAKER-PI-PICO-NB/14557835</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>DC Motor Driver Module for Raspberry Pi Pico</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stewart-connector/SC-2AMK003F/8544577</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/4698/13162109</t>
+  </si>
+  <si>
+    <t>Waveshare</t>
+  </si>
+  <si>
+    <t>https://www.waveshare.com/pico-motor-driver.htm</t>
+  </si>
+  <si>
+    <t>Gikfun 12V DC Dosing Pump Peristaltic Dosing Head</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B01IUVHB8E</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/J-B-Weld-31310-All-Purpose-Silicone/dp/B00ID8EDKY/?th=1</t>
+  </si>
+  <si>
+    <t>Food dye</t>
+  </si>
+  <si>
+    <t>Plant drip bag (pack of 5)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/seeed-technology-co.,-ltd/103020005/5487965</t>
+  </si>
+  <si>
+    <t>Grove Relay + Grove connector</t>
+  </si>
+  <si>
+    <t>Grove White LED</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/seeed-technology-co.,-ltd/104030009/5487953</t>
+  </si>
+  <si>
+    <t>Grove connector (5 pack, 5 cm)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/seeed-technology-co.,-ltd/110990036/5482563</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Spice-Supreme-Assorted-Colors-Yellow/dp/B00GNHIBZU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HUHKOUAE-Drip-Bag-Plants-Irrigation/dp/B09TNJ75G6</t>
+  </si>
+  <si>
+    <t>Lab4US quartz cuvette (pack of 2)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0829CD8SN/</t>
+  </si>
+  <si>
+    <t>Silicone to glass epoxy (1 hr set time)</t>
+  </si>
+  <si>
+    <t>12V DC power supply</t>
+  </si>
+  <si>
+    <t>https://ecuvettes.com/product/qf87-10mm-flow-through-cell-quartz-2-windows-powder-fused/</t>
+  </si>
+  <si>
+    <t>Both ends open quartz cuvette</t>
+  </si>
+  <si>
+    <t>ecuvette</t>
+  </si>
+  <si>
+    <t>Cuvette lid</t>
+  </si>
+  <si>
+    <t>https://ecuvettes.com/product/qa25-silicone-cuvette-lid-with-center-hole/</t>
+  </si>
+  <si>
+    <t>20 pin headers (0.1" pitch)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/amphenol-cs-fci/10129378-920001BLF/7915969</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/raspberry-pi/SC0918/16608263</t>
+  </si>
+  <si>
+    <t>20-pin jumper cable</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/4946/14552174</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Generic-Breakaway-Headers-Length-Centered/dp/B015KA0RRU/</t>
+  </si>
+  <si>
+    <t>Extra long male header pins</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Potential Alternates</t>
+  </si>
+  <si>
+    <t>Splitter</t>
+  </si>
+  <si>
+    <t>https://www.freshwatersystems.com/products/dmfit-two-way-divider-1-4-x-1-4-x-1-4-push-in?variant=13249525121067</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>Splitter (pack of 10)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Fitting-Divider-ATWD-0404W-Certificate/dp/B08WNGXF53</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Lemoy-Connect-Reverse-Osmosis-Filter/dp/B074YXVMSP/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Metalwork-Straight-Reducing-Pneumatic-Connector/dp/B07C7BKQLY/</t>
+  </si>
+  <si>
+    <t>6mm to 4 mm push-to-connect reducer (pack of 10)</t>
+  </si>
+  <si>
+    <t>Female DC power adapter</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/368/5629434</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/xp-power/VEL36US120-US-JA/6220849</t>
+  </si>
+  <si>
+    <t>Leather hole punch</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Leather-Plastics-leather-1-5mm-4mm-ASONTAO/dp/B08MF3T4YJ/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/PTFE-Teflon-tubing-5ft-Filament/dp/B07B8CK8L9?th=1</t>
+  </si>
+  <si>
+    <t>2mm ID/4mm OD PTFE tubing (5 ft)</t>
+  </si>
+  <si>
+    <t>1/4" water splitter (pack of 10)</t>
+  </si>
+  <si>
+    <t>Stacking header</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/5582</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/tensility-international-corp/10-01097/3507722</t>
+  </si>
+  <si>
+    <t>Female 2.1mm jack to open wire (3')</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Metalwork-Plastic-Connect-Splitter-Fitting/dp/B07C7JMLDL?th=1</t>
+  </si>
+  <si>
+    <t>4mm water splitter (pack of 10)</t>
+  </si>
+  <si>
+    <t>Straight union tube fitting, 4mm (pack of 10)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Metalwork-Plastic-Straight-Pneumatic-Connector/dp/B07C79R8F2/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Quickun-Plastic-Tubing-Control-Infusion/dp/B08BTQ3MWH/</t>
+  </si>
+  <si>
+    <t>1/8"-1/4" OD hose clamp</t>
+  </si>
+  <si>
+    <t>eCuvette</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Non-negotiable</t>
+  </si>
+  <si>
+    <t>Negotiable</t>
+  </si>
+  <si>
+    <t>Somewhere in-between</t>
   </si>
 </sst>
 </file>
@@ -576,411 +866,1048 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F27" si="0">D2*E2</f>
+        <v>4.79</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
         <v>10.99</v>
       </c>
-      <c r="E2" s="3">
-        <f t="shared" ref="E2:E9" si="0">C2*D2</f>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
         <v>10.99</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>33.409999999999997</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" si="0"/>
-        <v>33.409999999999997</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>20.99</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>20.99</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7.47</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>7.47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>7.99</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.29</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>7.29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>7.99</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>49.75</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E9" s="4">
+        <v>11.98</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>59.900000000000006</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>8.99</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>7.99</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>8.99</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.95</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>9.75</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5.95</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>29.75</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2.95</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>14.75</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>15.95</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>79.75</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>7.95</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>39.75</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="3">
-        <f>SUM(D2/5,D3/5,D4:D9)</f>
-        <v>53.58</v>
-      </c>
-      <c r="E11" s="3">
-        <f>SUM(E2:E9)</f>
-        <v>267.89999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>15.95</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1">
-        <v>15.22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.58</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="1">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18" s="6">
-        <f>E18/5</f>
-        <v>58.524000000000001</v>
-      </c>
-      <c r="E18" s="6">
-        <f>SUM(E11,E13:E15)</f>
-        <v>292.62</v>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>18.91</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>18.91</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.95</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>3.31</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>27</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <f>SUM(F2:F28)</f>
+        <v>273.63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6">
+        <f>SUM(F29,F31:F33)</f>
+        <v>273.63</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H27" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H27">
+      <sortCondition ref="C1:C27"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{1947C72E-9B11-401F-9192-F9A120243D95}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{17AEEC98-8C3F-4FB7-97DA-81A8B9E7A7D9}"/>
-    <hyperlink ref="F9" r:id="rId3" xr:uid="{62F5EF60-E9A2-4FC7-BCD5-62C2FF3CDD1C}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{3FA9502B-2BC0-4585-BA66-FFBF1FEFEB80}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{730EF475-94C2-4D41-B3C5-850FDF598DEC}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{45499AA0-E46C-4DDC-933F-872D6CFD4438}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{C5F6E3A1-832E-4FD5-8BD6-FC546B0FDAB6}"/>
-    <hyperlink ref="F4" r:id="rId8" xr:uid="{B2BE2E68-1D25-4529-8255-9B059365EF39}"/>
+    <hyperlink ref="G20" r:id="rId1" xr:uid="{C5F6E3A1-832E-4FD5-8BD6-FC546B0FDAB6}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{B2BE2E68-1D25-4529-8255-9B059365EF39}"/>
+    <hyperlink ref="G27" r:id="rId3" xr:uid="{DACE2763-167E-40B2-93F9-D48B12FF6263}"/>
+    <hyperlink ref="G18" r:id="rId4" xr:uid="{5854D339-2716-49B9-BE3E-FADE32F53000}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{9283A10A-E872-4DFA-B921-43BB3BB2A9D1}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{9DF5D0B0-A815-4C20-8059-E1B426A08B82}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{D5056138-7C85-4971-B051-7CDFD5AB73F6}"/>
+    <hyperlink ref="G17" r:id="rId8" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
+    <hyperlink ref="G26" r:id="rId9" xr:uid="{20BC59A6-3E21-499D-A3BE-7F4688DB7669}"/>
+    <hyperlink ref="G2" r:id="rId10" xr:uid="{0152A3F6-FE58-41D7-AB64-C8E374049A9A}"/>
+    <hyperlink ref="G10" r:id="rId11" xr:uid="{75173C7D-D480-4C2D-BE5A-040CEC28705B}"/>
+    <hyperlink ref="G11" r:id="rId12" xr:uid="{4EBD25A6-BC90-4F48-8400-2D5D15DB67BB}"/>
+    <hyperlink ref="G12" r:id="rId13" xr:uid="{E8DFC8C8-BFC9-4762-A5A9-0C0D8B61A3AD}"/>
+    <hyperlink ref="G13" r:id="rId14" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
+    <hyperlink ref="G14" r:id="rId15" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
+    <hyperlink ref="G15" r:id="rId16" xr:uid="{A1D5FB76-9E48-42F1-9287-96810421B11C}"/>
+    <hyperlink ref="G16" r:id="rId17" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
+    <hyperlink ref="G21" r:id="rId18" xr:uid="{C5189A0F-6A1E-4EB7-B0EE-C9F9C31F6FB6}"/>
+    <hyperlink ref="G25" r:id="rId19" xr:uid="{F1BA0C61-5376-465D-AB06-5E01E2179041}"/>
+    <hyperlink ref="G22" r:id="rId20" xr:uid="{A301E5AB-D96F-4BE1-B641-8D31C07525C1}"/>
+    <hyperlink ref="G24" r:id="rId21" xr:uid="{05EAFDB5-3875-46D6-B581-FDA74FFB5E3A}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{44ABE6CD-4E6D-475A-842D-942166C3FA57}"/>
+    <hyperlink ref="G6" r:id="rId23" xr:uid="{3CC123F2-E5F2-4C35-9A60-9135FDA068E1}"/>
+    <hyperlink ref="G7" r:id="rId24" xr:uid="{4DE7DCA4-77B8-482E-BFB8-69ABFDAB9416}"/>
+    <hyperlink ref="G8" r:id="rId25" xr:uid="{978E1A70-BD8B-4D1D-BD98-CC1E2572F3C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
-  <legacyDrawing r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96518F6-727A-4C36-B3C9-7218D81AE2F7}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A83F356-DA6A-40F7-B586-1DCB5C35EB75}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>39.99</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>39.99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.95</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>7.95</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>23.1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>7.99</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6.99</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>6.99</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{07AFA779-ED68-4644-A33E-A1F31DDF7CC1}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{A5DA8DD3-AB98-42E8-B3AE-4E6819E1B4EC}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{07FD9283-54AE-4833-92BB-F78B78140EFB}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{916C66BC-B961-46E5-B199-EE47029CFC21}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{638763E9-0861-4A1D-B20B-B810BFBAEFC4}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{ECDB46F1-EBB3-411C-B2AD-C38C9CB12B08}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CB80C1-49E2-4A31-BF97-CDDECB269D89}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3">
-        <f>C2*D2</f>
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3.95</v>
-      </c>
-      <c r="E3" s="3">
-        <f>C3*D3</f>
-        <v>19.75</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8.25</v>
-      </c>
-      <c r="E7" s="3">
-        <f>C7*D7</f>
-        <v>8.25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="E8" s="3">
-        <f>C8*D8</f>
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{2E86E1DB-8542-47E7-B83C-64E559FEB502}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{487C9E11-CDF7-4DD0-9BC4-25B3CBBFBF76}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reports/clslab-liquid-bom.xlsx
+++ b/reports/clslab-liquid-bom.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\sparks-baird\self-driving-lab-demo\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC437BF8-BCF2-4E72-BD52-F775F288A268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B077890-188C-4826-B729-7AC6D69DC470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
   </bookViews>
   <sheets>
     <sheet name="bill-of-materials" sheetId="1" r:id="rId1"/>
     <sheet name="extras-alternatives" sheetId="3" r:id="rId2"/>
     <sheet name="key" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bill-of-materials'!$A$1:$H$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bill-of-materials'!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
     <author>Sterling Baird</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{8BF7E175-44C1-411B-BAF5-1B809E7A0E08}">
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{E66B4A98-6087-4C8C-A6A5-17B4570CD937}">
       <text>
         <r>
           <rPr>
@@ -65,11 +66,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-2 mm ID also available (6.99 for 5 ft), 6 mm OD available</t>
+For the waste pump to have a dual function as a mixing mechanism</t>
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{B1583AB1-11CF-4FBB-BDAF-297BA349DDB9}">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{B1583AB1-11CF-4FBB-BDAF-297BA349DDB9}">
       <text>
         <r>
           <rPr>
@@ -93,31 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{EE830F69-BA81-4FA0-80EB-F66E50F8DBB3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sterling Baird:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Lots of stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{0039889F-E207-4F68-AE59-28278C393A81}">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{0039889F-E207-4F68-AE59-28278C393A81}">
       <text>
         <r>
           <rPr>
@@ -141,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F36" authorId="0" shapeId="0" xr:uid="{73BBF5A2-8AC7-47B9-BDAA-A03FE0DEB7D3}">
+    <comment ref="F35" authorId="0" shapeId="0" xr:uid="{73BBF5A2-8AC7-47B9-BDAA-A03FE0DEB7D3}">
       <text>
         <r>
           <rPr>
@@ -200,12 +177,191 @@
         </r>
       </text>
     </comment>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{AC4CB2CE-578A-452E-955B-55B4D66B0275}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Preferred</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{EE830F69-BA81-4FA0-80EB-F66E50F8DBB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Lots of stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{8BF7E175-44C1-411B-BAF5-1B809E7A0E08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2 mm ID also available (6.99 for 5 ft), 6 mm OD available. Silicone or pvc tubing might be another option, too.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sterling Baird</author>
+  </authors>
+  <commentList>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{D5E12582-8417-407F-95B0-F86D361E42A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2 mm ID also available (6.99 for 5 ft), 6 mm OD available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{1492370D-78A5-479A-BCE6-A67A73946A95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+20 cm also available https://www.digikey.com/en/products/detail/seeed-technology-co.,-ltd/110990027/5482567</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{25FB4771-ACCE-46C7-8D15-77A69FF68251}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Lots of stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{B00B5C03-6D7E-4D44-A80A-EB8BF67F648A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tax wasn't included
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="103">
   <si>
     <t>Sculpting wire</t>
   </si>
@@ -372,9 +528,6 @@
     <t>https://www.amazon.com/Generic-Breakaway-Headers-Length-Centered/dp/B015KA0RRU/</t>
   </si>
   <si>
-    <t>Extra long male header pins</t>
-  </si>
-  <si>
     <t>Fixed</t>
   </si>
   <si>
@@ -472,6 +625,51 @@
   </si>
   <si>
     <t>Somewhere in-between</t>
+  </si>
+  <si>
+    <t>9V DC power supply</t>
+  </si>
+  <si>
+    <t>Maker MDD3A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/seeed-technology-co-ltd/105090004/10667518</t>
+  </si>
+  <si>
+    <t>Power splitter</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/1351/5268473</t>
+  </si>
+  <si>
+    <t>Terminal block jack adapter</t>
+  </si>
+  <si>
+    <t>Grove to female jumpers (5-pack)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/seeed-technology-co.,-ltd/110990028/5482559</t>
+  </si>
+  <si>
+    <t>Extra long male header pins (pack of 10)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B086GVNK7X/ref=emc_b_5_t?th=1</t>
+  </si>
+  <si>
+    <t>Glass cuvette with sealing lid (pack of 2) (glass according to customer)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Grove to Stemma-QT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08PTXMNCN</t>
+  </si>
+  <si>
+    <t>2mm ID/4mm OD Silicone tubing (10 ft)</t>
   </si>
 </sst>
 </file>
@@ -866,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,7 +1087,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -907,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -927,7 +1125,7 @@
         <v>4.79</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F27" si="0">D2*E2</f>
+        <f>D2*E2</f>
         <v>4.79</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -951,7 +1149,7 @@
         <v>10.99</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" si="0"/>
+        <f>D3*E3</f>
         <v>10.99</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -978,7 +1176,7 @@
         <v>20.99</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="0"/>
+        <f>D4*E4</f>
         <v>20.99</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1005,7 +1203,7 @@
         <v>7.47</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
+        <f>D5*E5</f>
         <v>7.47</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1014,7 +1212,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1029,16 +1227,16 @@
         <v>7.99</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="0"/>
+        <f>D6*E6</f>
         <v>7.99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1047,25 +1245,25 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="4">
-        <v>7.29</v>
+        <v>11.98</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>7.29</v>
+        <f>D7*E7</f>
+        <v>59.900000000000006</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1074,19 +1272,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>7.99</v>
+        <v>8.99</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>7.99</v>
+        <f>D8*E8</f>
+        <v>8.99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1095,25 +1293,22 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>11.98</v>
+        <v>7.99</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>59.900000000000006</v>
+        <f>D9*E9</f>
+        <v>7.99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1122,19 +1317,19 @@
         <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>8.99</v>
+        <v>7.99</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>8.99</v>
+        <f>D10*E10</f>
+        <v>7.99</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1146,43 +1341,43 @@
         <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>7.99</v>
+        <v>29.99</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>7.99</v>
+        <f>D11*E11</f>
+        <v>29.99</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
-        <v>8.99</v>
+      <c r="E12" s="3">
+        <v>15.95</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>8.99</v>
+        <f>D12*E12</f>
+        <v>15.95</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1194,19 +1389,19 @@
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>15.95</v>
+        <v>2.58</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>15.95</v>
+        <f>D13*E13</f>
+        <v>2.58</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1217,20 +1412,20 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="3">
-        <v>2.58</v>
+      <c r="E14" s="4">
+        <v>6</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>2.58</v>
+        <f>D14*E14</f>
+        <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1239,22 +1434,22 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
-        <v>6</v>
+        <v>0.43</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>D15*E15</f>
+        <v>0.86</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1263,25 +1458,25 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4">
-        <v>0.43</v>
+        <v>18.91</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.86</v>
+        <f>D16*E16</f>
+        <v>18.91</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -1290,371 +1485,339 @@
         <v>1</v>
       </c>
       <c r="E17" s="4">
-        <v>18.91</v>
+        <v>2.95</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>18.91</v>
+        <f>D17*E17</f>
+        <v>2.95</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <f>D18*E18</f>
+        <v>4</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="F19" s="3">
+        <f>D19*E19</f>
+        <v>4.3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
         <v>2.1</v>
       </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
+      <c r="F20" s="3">
+        <f>D20*E20</f>
         <v>2.1</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
         <v>8.4</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
+      <c r="F21" s="3">
+        <f>D21*E21</f>
         <v>8.4</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
         <v>1.95</v>
       </c>
-      <c r="F20" s="3">
-        <f t="shared" si="0"/>
+      <c r="F22" s="3">
+        <f>D22*E22</f>
         <v>1.95</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="F23" s="3">
+        <f>D23*E23</f>
+        <v>6.9</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
         <v>2.1</v>
       </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
+      <c r="F24" s="3">
+        <f>D24*E24</f>
         <v>2.1</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>3.31</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>3.31</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4">
         <v>1.95</v>
       </c>
-      <c r="F24" s="3">
-        <f t="shared" si="0"/>
+      <c r="F25" s="3">
+        <f>D25*E25</f>
         <v>3.9</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4">
-        <v>27</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="4">
-        <v>2</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>D26*E26</f>
+        <v>19.989999999999998</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>19.989999999999998</v>
-      </c>
-      <c r="G27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3">
-        <f>SUM(F2:F28)</f>
-        <v>273.63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F30" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <f>SUM(F2:F27)</f>
+        <v>267.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>85</v>
+      <c r="F33" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E37" s="6"/>
-      <c r="F37" s="6">
-        <f>SUM(F29,F31:F33)</f>
-        <v>273.63</v>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6">
+        <f>SUM(F28,F30:F33)</f>
+        <v>280.97000000000003</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H27" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H27">
-      <sortCondition ref="C1:C27"/>
+  <autoFilter ref="A1:H26" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
+      <sortCondition ref="C1:C26"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" xr:uid="{C5F6E3A1-832E-4FD5-8BD6-FC546B0FDAB6}"/>
-    <hyperlink ref="G19" r:id="rId2" xr:uid="{B2BE2E68-1D25-4529-8255-9B059365EF39}"/>
-    <hyperlink ref="G27" r:id="rId3" xr:uid="{DACE2763-167E-40B2-93F9-D48B12FF6263}"/>
-    <hyperlink ref="G18" r:id="rId4" xr:uid="{5854D339-2716-49B9-BE3E-FADE32F53000}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{9283A10A-E872-4DFA-B921-43BB3BB2A9D1}"/>
-    <hyperlink ref="G4" r:id="rId6" xr:uid="{9DF5D0B0-A815-4C20-8059-E1B426A08B82}"/>
-    <hyperlink ref="G9" r:id="rId7" xr:uid="{D5056138-7C85-4971-B051-7CDFD5AB73F6}"/>
-    <hyperlink ref="G17" r:id="rId8" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
-    <hyperlink ref="G26" r:id="rId9" xr:uid="{20BC59A6-3E21-499D-A3BE-7F4688DB7669}"/>
-    <hyperlink ref="G2" r:id="rId10" xr:uid="{0152A3F6-FE58-41D7-AB64-C8E374049A9A}"/>
-    <hyperlink ref="G10" r:id="rId11" xr:uid="{75173C7D-D480-4C2D-BE5A-040CEC28705B}"/>
-    <hyperlink ref="G11" r:id="rId12" xr:uid="{4EBD25A6-BC90-4F48-8400-2D5D15DB67BB}"/>
-    <hyperlink ref="G12" r:id="rId13" xr:uid="{E8DFC8C8-BFC9-4762-A5A9-0C0D8B61A3AD}"/>
-    <hyperlink ref="G13" r:id="rId14" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
-    <hyperlink ref="G14" r:id="rId15" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
-    <hyperlink ref="G15" r:id="rId16" xr:uid="{A1D5FB76-9E48-42F1-9287-96810421B11C}"/>
-    <hyperlink ref="G16" r:id="rId17" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
-    <hyperlink ref="G21" r:id="rId18" xr:uid="{C5189A0F-6A1E-4EB7-B0EE-C9F9C31F6FB6}"/>
-    <hyperlink ref="G25" r:id="rId19" xr:uid="{F1BA0C61-5376-465D-AB06-5E01E2179041}"/>
-    <hyperlink ref="G22" r:id="rId20" xr:uid="{A301E5AB-D96F-4BE1-B641-8D31C07525C1}"/>
-    <hyperlink ref="G24" r:id="rId21" xr:uid="{05EAFDB5-3875-46D6-B581-FDA74FFB5E3A}"/>
-    <hyperlink ref="G23" r:id="rId22" xr:uid="{44ABE6CD-4E6D-475A-842D-942166C3FA57}"/>
-    <hyperlink ref="G6" r:id="rId23" xr:uid="{3CC123F2-E5F2-4C35-9A60-9135FDA068E1}"/>
-    <hyperlink ref="G7" r:id="rId24" xr:uid="{4DE7DCA4-77B8-482E-BFB8-69ABFDAB9416}"/>
-    <hyperlink ref="G8" r:id="rId25" xr:uid="{978E1A70-BD8B-4D1D-BD98-CC1E2572F3C0}"/>
+    <hyperlink ref="G22" r:id="rId1" xr:uid="{C5F6E3A1-832E-4FD5-8BD6-FC546B0FDAB6}"/>
+    <hyperlink ref="G21" r:id="rId2" xr:uid="{B2BE2E68-1D25-4529-8255-9B059365EF39}"/>
+    <hyperlink ref="G20" r:id="rId3" xr:uid="{5854D339-2716-49B9-BE3E-FADE32F53000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{9283A10A-E872-4DFA-B921-43BB3BB2A9D1}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{9DF5D0B0-A815-4C20-8059-E1B426A08B82}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{D5056138-7C85-4971-B051-7CDFD5AB73F6}"/>
+    <hyperlink ref="G16" r:id="rId7" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
+    <hyperlink ref="G2" r:id="rId8" xr:uid="{0152A3F6-FE58-41D7-AB64-C8E374049A9A}"/>
+    <hyperlink ref="G8" r:id="rId9" xr:uid="{75173C7D-D480-4C2D-BE5A-040CEC28705B}"/>
+    <hyperlink ref="G9" r:id="rId10" xr:uid="{4EBD25A6-BC90-4F48-8400-2D5D15DB67BB}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{A1D5FB76-9E48-42F1-9287-96810421B11C}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
+    <hyperlink ref="G24" r:id="rId15" xr:uid="{A301E5AB-D96F-4BE1-B641-8D31C07525C1}"/>
+    <hyperlink ref="G25" r:id="rId16" xr:uid="{05EAFDB5-3875-46D6-B581-FDA74FFB5E3A}"/>
+    <hyperlink ref="G6" r:id="rId17" xr:uid="{3CC123F2-E5F2-4C35-9A60-9135FDA068E1}"/>
+    <hyperlink ref="G3" r:id="rId18" xr:uid="{9A0672E1-2100-4676-B1ED-912FF121366A}"/>
+    <hyperlink ref="G23" r:id="rId19" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
+    <hyperlink ref="G26" r:id="rId20" xr:uid="{DACE2763-167E-40B2-93F9-D48B12FF6263}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
-  <legacyDrawing r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
+  <legacyDrawing r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A83F356-DA6A-40F7-B586-1DCB5C35EB75}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1726,10 +1889,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1742,15 +1905,15 @@
         <v>3.9000000000000004</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1763,12 +1926,12 @@
         <v>23.1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1784,12 +1947,12 @@
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1808,18 +1971,18 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1832,18 +1995,18 @@
         <v>7.99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1856,7 +2019,175 @@
         <v>6.99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="F10" s="3">
+        <f>D10*E10</f>
+        <v>7.99</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F11" s="3">
+        <f>D11*E11</f>
+        <v>3.2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3">
+        <f>D12*E12</f>
+        <v>27</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <f>D13*E13</f>
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="F14" s="3">
+        <f>D14*E14</f>
+        <v>3.31</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7.29</v>
+      </c>
+      <c r="F15" s="3">
+        <f>D15*E15</f>
+        <v>7.29</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="F16" s="3">
+        <f>D16*E16</f>
+        <v>8.99</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1867,9 +2198,16 @@
     <hyperlink ref="G7" r:id="rId4" xr:uid="{916C66BC-B961-46E5-B199-EE47029CFC21}"/>
     <hyperlink ref="G8" r:id="rId5" xr:uid="{638763E9-0861-4A1D-B20B-B810BFBAEFC4}"/>
     <hyperlink ref="G9" r:id="rId6" xr:uid="{ECDB46F1-EBB3-411C-B2AD-C38C9CB12B08}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{978E1A70-BD8B-4D1D-BD98-CC1E2572F3C0}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{C5189A0F-6A1E-4EB7-B0EE-C9F9C31F6FB6}"/>
+    <hyperlink ref="G13" r:id="rId9" xr:uid="{20BC59A6-3E21-499D-A3BE-7F4688DB7669}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{F1BA0C61-5376-465D-AB06-5E01E2179041}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{44ABE6CD-4E6D-475A-842D-942166C3FA57}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{4DE7DCA4-77B8-482E-BFB8-69ABFDAB9416}"/>
+    <hyperlink ref="G16" r:id="rId13" xr:uid="{E8DFC8C8-BFC9-4762-A5A9-0C0D8B61A3AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId7"/>
+  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -1888,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1896,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1904,10 +2242,715 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5E7784-2861-42A1-B1B0-C02B10D0BF8C}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>4.79</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10.99</v>
+      </c>
+      <c r="F3" s="3">
+        <f>D3*E3</f>
+        <v>10.99</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>20.99</v>
+      </c>
+      <c r="F4" s="3">
+        <f>D4*E4</f>
+        <v>20.99</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7.47</v>
+      </c>
+      <c r="F5" s="3">
+        <f>D5*E5</f>
+        <v>7.47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="F6" s="3">
+        <f>D6*E6</f>
+        <v>7.99</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.29</v>
+      </c>
+      <c r="F7" s="3">
+        <f>D7*E7</f>
+        <v>7.29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>11.98</v>
+      </c>
+      <c r="F8" s="3">
+        <f>D8*E8</f>
+        <v>59.900000000000006</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="F9" s="3">
+        <f>D9*E9</f>
+        <v>7.99</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="F10" s="3">
+        <f>D10*E10</f>
+        <v>8.99</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>15.95</v>
+      </c>
+      <c r="F11" s="3">
+        <f>D11*E11</f>
+        <v>15.95</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="F12" s="3">
+        <f>D12*E12</f>
+        <v>2.58</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3">
+        <f>D13*E13</f>
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="F14" s="3">
+        <f>D14*E14</f>
+        <v>0.86</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>18.91</v>
+      </c>
+      <c r="F15" s="3">
+        <f>D15*E15</f>
+        <v>18.91</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F16" s="3">
+        <f>D16*E16</f>
+        <v>2.1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="F17" s="3">
+        <f>D17*E17</f>
+        <v>8.4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="F18" s="3">
+        <f>D18*E18</f>
+        <v>1.95</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F19" s="3">
+        <f>D19*E19</f>
+        <v>3.2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F20" s="3">
+        <f>D20*E20</f>
+        <v>2.1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="F21" s="3">
+        <f>D21*E21</f>
+        <v>3.31</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>27</v>
+      </c>
+      <c r="F22" s="3">
+        <f>D22*E22</f>
+        <v>27</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <f>D23*E23</f>
+        <v>4</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F24" s="3">
+        <f>D24*E24</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <f>SUM(F2:F25)</f>
+        <v>252.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6">
+        <f>SUM(F26,F28:F30)</f>
+        <v>252.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G18" r:id="rId1" xr:uid="{9B0D1FA6-BF3B-4110-9194-6C27AC4A6968}"/>
+    <hyperlink ref="G17" r:id="rId2" xr:uid="{8FC13769-00EA-4149-AD56-A77EBE4D598E}"/>
+    <hyperlink ref="G24" r:id="rId3" xr:uid="{5C534CBF-525B-426A-B4EA-35E86D4CB277}"/>
+    <hyperlink ref="G16" r:id="rId4" xr:uid="{5FBCF259-B960-4D46-8D3D-96FA5D253F22}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{88CD04C0-B5CA-4F9D-862A-5702447ABB32}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{CC21991F-F155-46F9-9C40-B9EE631E2DBA}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{D4733942-EE59-485D-A199-877C064B2B37}"/>
+    <hyperlink ref="G15" r:id="rId8" xr:uid="{C1E334BE-A396-4669-BDBA-4ABE5BEA6505}"/>
+    <hyperlink ref="G23" r:id="rId9" xr:uid="{26AD8468-432F-4909-B2A7-A50FFC3E602B}"/>
+    <hyperlink ref="G2" r:id="rId10" xr:uid="{296FF4C8-E4E5-489B-A5C8-5F2B90C8FB2D}"/>
+    <hyperlink ref="G9" r:id="rId11" xr:uid="{58FBD2C3-1C6A-4BDF-BE5B-7B8DC72E550E}"/>
+    <hyperlink ref="G10" r:id="rId12" xr:uid="{495B887A-8215-4EDA-8A6C-554FAD8E9C7F}"/>
+    <hyperlink ref="G11" r:id="rId13" xr:uid="{EEDB8C82-63F9-421A-A119-16849F409ECF}"/>
+    <hyperlink ref="G12" r:id="rId14" xr:uid="{D32E7437-1C30-4534-BA87-4AA60B5F008E}"/>
+    <hyperlink ref="G13" r:id="rId15" xr:uid="{433ADDB2-61A5-4E0B-A6D7-C9891A213C4B}"/>
+    <hyperlink ref="G14" r:id="rId16" xr:uid="{DFD10264-7CF8-4A0F-8AC7-162BDFFFB014}"/>
+    <hyperlink ref="G19" r:id="rId17" xr:uid="{B65315E8-14A6-4C69-81C3-32A6932EDDE4}"/>
+    <hyperlink ref="G22" r:id="rId18" xr:uid="{B5F41A8C-F106-40F8-81B9-8D714E50A4E7}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{A04C4209-02EC-4991-A6BF-CEC6611FF027}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{205CCFFD-A27E-40E8-BD3C-BD5A2E484A69}"/>
+    <hyperlink ref="G6" r:id="rId21" xr:uid="{F6DBFD73-3B5C-4C75-94AF-3A1C18CD3A76}"/>
+    <hyperlink ref="G7" r:id="rId22" xr:uid="{2E515681-336D-4C38-8665-BBBE430DEE65}"/>
+    <hyperlink ref="G3" r:id="rId23" xr:uid="{2CEB092C-8BB2-4481-BF4E-80BBB358E76B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId24"/>
+</worksheet>
 </file>
--- a/reports/clslab-liquid-bom.xlsx
+++ b/reports/clslab-liquid-bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\sparks-baird\self-driving-lab-demo\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B077890-188C-4826-B729-7AC6D69DC470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10FED44-F2DE-47FA-8F6B-D90D541E78F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
   </bookViews>
   <sheets>
     <sheet name="bill-of-materials" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,30 @@
     <author>Sterling Baird</author>
   </authors>
   <commentList>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{154D5317-316B-4A0E-9339-DACB8F9D398A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maybe no air outlet needed due to use of flexible drip bags. Just need to be careful not to pressurize the system too much at any point where connections would get disconnected.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A23" authorId="0" shapeId="0" xr:uid="{E66B4A98-6087-4C8C-A6A5-17B4570CD937}">
       <text>
         <r>
@@ -361,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="106">
   <si>
     <t>Sculpting wire</t>
   </si>
@@ -492,9 +516,6 @@
     <t>Silicone to glass epoxy (1 hr set time)</t>
   </si>
   <si>
-    <t>12V DC power supply</t>
-  </si>
-  <si>
     <t>https://ecuvettes.com/product/qf87-10mm-flow-through-cell-quartz-2-windows-powder-fused/</t>
   </si>
   <si>
@@ -654,9 +675,6 @@
     <t>Extra long male header pins (pack of 10)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/dp/B086GVNK7X/ref=emc_b_5_t?th=1</t>
-  </si>
-  <si>
     <t>Glass cuvette with sealing lid (pack of 2) (glass according to customer)</t>
   </si>
   <si>
@@ -670,6 +688,21 @@
   </si>
   <si>
     <t>2mm ID/4mm OD Silicone tubing (10 ft)</t>
+  </si>
+  <si>
+    <t>12V / 36 W DC power supply</t>
+  </si>
+  <si>
+    <t>Gikfun 12V DC Dosing Pump Peristaltic Dosing Head (300 mA)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B086GVNK7X</t>
+  </si>
+  <si>
+    <t>Five-way manifold, 4mm OD push to connect</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B08HRZLDX3/ref=ppx_yo_dt_b_asin_title_o01_s00?ie=UTF8&amp;th=1</t>
   </si>
 </sst>
 </file>
@@ -681,7 +714,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,6 +749,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1066,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1105,7 +1151,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1212,10 +1258,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1224,19 +1267,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>7.99</v>
+        <v>9.99</v>
       </c>
       <c r="F6" s="3">
         <f>D6*E6</f>
-        <v>7.99</v>
+        <v>9.99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1260,7 +1303,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1279,12 +1322,12 @@
         <v>8.99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1303,12 +1346,12 @@
         <v>7.99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1324,12 +1367,12 @@
         <v>7.99</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1348,7 +1391,7 @@
         <v>29.99</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1420,12 +1463,12 @@
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1444,12 +1487,12 @@
         <v>0.86</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1468,12 +1511,12 @@
         <v>18.91</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1492,12 +1535,12 @@
         <v>2.95</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1516,12 +1559,12 @@
         <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1540,7 +1583,7 @@
         <v>4.3</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1593,7 +1636,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1617,7 +1660,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1636,7 +1679,7 @@
         <v>6.9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1665,7 +1708,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1684,7 +1727,7 @@
         <v>3.9</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1723,7 +1766,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3">
         <f>SUM(F2:F27)</f>
-        <v>267.98</v>
+        <v>269.98</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1752,10 +1795,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1775,7 +1818,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6">
         <f>SUM(F28,F30:F33)</f>
-        <v>280.97000000000003</v>
+        <v>282.97000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1801,23 +1844,25 @@
     <hyperlink ref="G15" r:id="rId14" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
     <hyperlink ref="G24" r:id="rId15" xr:uid="{A301E5AB-D96F-4BE1-B641-8D31C07525C1}"/>
     <hyperlink ref="G25" r:id="rId16" xr:uid="{05EAFDB5-3875-46D6-B581-FDA74FFB5E3A}"/>
-    <hyperlink ref="G6" r:id="rId17" xr:uid="{3CC123F2-E5F2-4C35-9A60-9135FDA068E1}"/>
-    <hyperlink ref="G3" r:id="rId18" xr:uid="{9A0672E1-2100-4676-B1ED-912FF121366A}"/>
-    <hyperlink ref="G23" r:id="rId19" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
-    <hyperlink ref="G26" r:id="rId20" xr:uid="{DACE2763-167E-40B2-93F9-D48B12FF6263}"/>
+    <hyperlink ref="G3" r:id="rId17" xr:uid="{9A0672E1-2100-4676-B1ED-912FF121366A}"/>
+    <hyperlink ref="G23" r:id="rId18" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
+    <hyperlink ref="G26" r:id="rId19" xr:uid="{DACE2763-167E-40B2-93F9-D48B12FF6263}"/>
+    <hyperlink ref="G11" r:id="rId20" xr:uid="{55FD34F5-30B7-4FD2-8D08-04AACC942CC8}"/>
+    <hyperlink ref="G10" r:id="rId21" xr:uid="{C54DA0C4-0210-4120-8B27-966398DA9148}"/>
+    <hyperlink ref="G6" r:id="rId22" xr:uid="{CE847A67-9E0A-4400-8F59-D5077969B9D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
-  <legacyDrawing r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A83F356-DA6A-40F7-B586-1DCB5C35EB75}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1889,10 +1934,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1905,15 +1950,15 @@
         <v>3.9000000000000004</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1926,12 +1971,12 @@
         <v>23.1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1947,12 +1992,12 @@
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1971,18 +2016,18 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1995,18 +2040,18 @@
         <v>7.99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2019,12 +2064,12 @@
         <v>6.99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -2039,11 +2084,11 @@
         <v>7.99</v>
       </c>
       <c r="F10" s="3">
-        <f>D10*E10</f>
+        <f t="shared" ref="F10:F16" si="2">D10*E10</f>
         <v>7.99</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2063,7 +2108,7 @@
         <v>3.2</v>
       </c>
       <c r="F11" s="3">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2072,13 +2117,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>45</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2087,40 +2132,40 @@
         <v>27</v>
       </c>
       <c r="F12" s="3">
-        <f>D12*E12</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3">
-        <f>D13*E13</f>
-        <v>4</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2135,16 +2180,16 @@
         <v>3.31</v>
       </c>
       <c r="F14" s="3">
-        <f>D14*E14</f>
+        <f t="shared" si="2"/>
         <v>3.31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2159,16 +2204,16 @@
         <v>7.29</v>
       </c>
       <c r="F15" s="3">
-        <f>D15*E15</f>
+        <f t="shared" si="2"/>
         <v>7.29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2183,11 +2228,35 @@
         <v>8.99</v>
       </c>
       <c r="F16" s="3">
-        <f>D16*E16</f>
+        <f t="shared" si="2"/>
         <v>8.99</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="F17" s="3">
+        <f>D17*E17</f>
+        <v>7.99</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2205,9 +2274,10 @@
     <hyperlink ref="G14" r:id="rId11" xr:uid="{44ABE6CD-4E6D-475A-842D-942166C3FA57}"/>
     <hyperlink ref="G15" r:id="rId12" xr:uid="{4DE7DCA4-77B8-482E-BFB8-69ABFDAB9416}"/>
     <hyperlink ref="G16" r:id="rId13" xr:uid="{E8DFC8C8-BFC9-4762-A5A9-0C0D8B61A3AD}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{3CC123F2-E5F2-4C35-9A60-9135FDA068E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -2226,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2234,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2242,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2345,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2293,7 +2363,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2313,7 +2383,7 @@
         <v>4.79</v>
       </c>
       <c r="F2" s="3">
-        <f>D2*E2</f>
+        <f t="shared" ref="F2:F24" si="0">D2*E2</f>
         <v>4.79</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2337,7 +2407,7 @@
         <v>10.99</v>
       </c>
       <c r="F3" s="3">
-        <f>D3*E3</f>
+        <f t="shared" si="0"/>
         <v>10.99</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2364,7 +2434,7 @@
         <v>20.99</v>
       </c>
       <c r="F4" s="3">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>20.99</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2391,7 +2461,7 @@
         <v>7.47</v>
       </c>
       <c r="F5" s="3">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>7.47</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2400,7 +2470,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2415,16 +2485,16 @@
         <v>7.99</v>
       </c>
       <c r="F6" s="3">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2439,11 +2509,11 @@
         <v>7.29</v>
       </c>
       <c r="F7" s="3">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>7.29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2463,7 +2533,7 @@
         <v>11.98</v>
       </c>
       <c r="F8" s="3">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>59.900000000000006</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2472,7 +2542,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2487,16 +2557,16 @@
         <v>7.99</v>
       </c>
       <c r="F9" s="3">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -2511,11 +2581,11 @@
         <v>8.99</v>
       </c>
       <c r="F10" s="3">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2535,7 +2605,7 @@
         <v>15.95</v>
       </c>
       <c r="F11" s="3">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>15.95</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2559,7 +2629,7 @@
         <v>2.58</v>
       </c>
       <c r="F12" s="3">
-        <f>D12*E12</f>
+        <f t="shared" si="0"/>
         <v>2.58</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2583,16 +2653,16 @@
         <v>6</v>
       </c>
       <c r="F13" s="3">
-        <f>D13*E13</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2607,16 +2677,16 @@
         <v>0.43</v>
       </c>
       <c r="F14" s="3">
-        <f>D14*E14</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2631,11 +2701,11 @@
         <v>18.91</v>
       </c>
       <c r="F15" s="3">
-        <f>D15*E15</f>
+        <f t="shared" si="0"/>
         <v>18.91</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2655,7 +2725,7 @@
         <v>2.1</v>
       </c>
       <c r="F16" s="3">
-        <f>D16*E16</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2679,7 +2749,7 @@
         <v>8.4</v>
       </c>
       <c r="F17" s="3">
-        <f>D17*E17</f>
+        <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -2703,7 +2773,7 @@
         <v>1.95</v>
       </c>
       <c r="F18" s="3">
-        <f>D18*E18</f>
+        <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -2727,7 +2797,7 @@
         <v>3.2</v>
       </c>
       <c r="F19" s="3">
-        <f>D19*E19</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -2751,7 +2821,7 @@
         <v>2.1</v>
       </c>
       <c r="F20" s="3">
-        <f>D20*E20</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -2760,7 +2830,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2775,22 +2845,22 @@
         <v>3.31</v>
       </c>
       <c r="F21" s="3">
-        <f>D21*E21</f>
+        <f t="shared" si="0"/>
         <v>3.31</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>45</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2799,35 +2869,35 @@
         <v>27</v>
       </c>
       <c r="F22" s="3">
-        <f>D22*E22</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <f>D23*E23</f>
-        <v>4</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2847,7 +2917,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F24" s="3">
-        <f>D24*E24</f>
+        <f t="shared" si="0"/>
         <v>19.989999999999998</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2882,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -2893,15 +2963,15 @@
         <v>21</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2909,7 +2979,7 @@
         <v>25</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.3">

--- a/reports/clslab-liquid-bom.xlsx
+++ b/reports/clslab-liquid-bom.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\sparks-baird\self-driving-lab-demo\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10FED44-F2DE-47FA-8F6B-D90D541E78F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB6E1CD-BD0A-4FFB-8584-094FB50EABBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
   </bookViews>
   <sheets>
     <sheet name="bill-of-materials" sheetId="1" r:id="rId1"/>
     <sheet name="extras-alternatives" sheetId="3" r:id="rId2"/>
-    <sheet name="key" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="optionals" sheetId="6" r:id="rId3"/>
+    <sheet name="Tools" sheetId="7" r:id="rId4"/>
+    <sheet name="key" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bill-of-materials'!$A$1:$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bill-of-materials'!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,6 +72,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{005A3F34-6F4F-45BD-AC4C-761690018DA5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Preferred</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A23" authorId="0" shapeId="0" xr:uid="{E66B4A98-6087-4C8C-A6A5-17B4570CD937}">
       <text>
         <r>
@@ -94,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{B1583AB1-11CF-4FBB-BDAF-297BA349DDB9}">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{0039889F-E207-4F68-AE59-28278C393A81}">
       <text>
         <r>
           <rPr>
@@ -114,35 +140,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-20 cm also available https://www.digikey.com/en/products/detail/seeed-technology-co.,-ltd/110990027/5482567</t>
+Could replace with stacking headers, but would be kind of strange to have one PCB upside down and attached</t>
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{0039889F-E207-4F68-AE59-28278C393A81}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sterling Baird:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Could replace with stacking headers</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F35" authorId="0" shapeId="0" xr:uid="{73BBF5A2-8AC7-47B9-BDAA-A03FE0DEB7D3}">
+    <comment ref="F34" authorId="0" shapeId="0" xr:uid="{73BBF5A2-8AC7-47B9-BDAA-A03FE0DEB7D3}">
       <text>
         <r>
           <rPr>
@@ -273,6 +275,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{B1583AB1-11CF-4FBB-BDAF-297BA349DDB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+20 cm also available https://www.digikey.com/en/products/detail/seeed-technology-co.,-ltd/110990027/5482567</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{52BF54B8-029A-4BDB-9808-A80B6F22C027}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Out of stock</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -385,7 +435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="109">
   <si>
     <t>Sculpting wire</t>
   </si>
@@ -678,9 +728,6 @@
     <t>Glass cuvette with sealing lid (pack of 2) (glass according to customer)</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Grove to Stemma-QT</t>
   </si>
   <si>
@@ -703,6 +750,18 @@
   </si>
   <si>
     <t>https://www.amazon.com/gp/product/B08HRZLDX3/ref=ppx_yo_dt_b_asin_title_o01_s00?ie=UTF8&amp;th=1</t>
+  </si>
+  <si>
+    <t>Wire cutters</t>
+  </si>
+  <si>
+    <t>Wire strippers</t>
+  </si>
+  <si>
+    <t>Scissors</t>
+  </si>
+  <si>
+    <t>Soldering iron and solder</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1317,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1274,12 +1333,12 @@
         <v>9.99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1351,7 +1410,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1367,60 +1426,60 @@
         <v>7.99</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>29.99</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3">
-        <f>D11*E11</f>
-        <v>29.99</v>
+        <f t="shared" ref="F11" si="0">D11*E11</f>
+        <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>15.95</v>
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
       </c>
       <c r="F12" s="3">
-        <f>D12*E12</f>
-        <v>15.95</v>
+        <f t="shared" ref="F12" si="1">D12*E12</f>
+        <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1432,19 +1491,19 @@
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>2.58</v>
+        <v>15.95</v>
       </c>
       <c r="F13" s="3">
         <f>D13*E13</f>
-        <v>2.58</v>
+        <v>15.95</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1455,20 +1514,20 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="4">
-        <v>6</v>
+      <c r="E14" s="3">
+        <v>2.58</v>
       </c>
       <c r="F14" s="3">
         <f>D14*E14</f>
-        <v>6</v>
+        <v>2.58</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1477,22 +1536,22 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4">
-        <v>0.43</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3">
         <f>D15*E15</f>
-        <v>0.86</v>
+        <v>6</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1501,25 +1560,25 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4">
-        <v>18.91</v>
+        <v>0.43</v>
       </c>
       <c r="F16" s="3">
         <f>D16*E16</f>
-        <v>18.91</v>
+        <v>0.86</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -1528,19 +1587,19 @@
         <v>1</v>
       </c>
       <c r="E17" s="4">
-        <v>2.95</v>
+        <v>18.91</v>
       </c>
       <c r="F17" s="3">
         <f>D17*E17</f>
-        <v>2.95</v>
+        <v>18.91</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1549,22 +1608,22 @@
         <v>21</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4">
-        <v>2</v>
+        <v>2.95</v>
       </c>
       <c r="F18" s="3">
         <f>D18*E18</f>
-        <v>4</v>
+        <v>2.95</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1573,17 +1632,17 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="4">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
         <f>D19*E19</f>
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1636,7 +1695,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1684,147 +1743,123 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="4">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="F24" s="3">
         <f>D24*E24</f>
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4">
-        <v>1.95</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F25" s="3">
         <f>D25*E25</f>
-        <v>3.9</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="F26" s="3">
-        <f>D26*E26</f>
-        <v>19.989999999999998</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <f>SUM(F2:F26)</f>
+        <v>264.58999999999997</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
-        <f>SUM(F2:F27)</f>
-        <v>269.98</v>
+      <c r="F28" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F29" t="s">
-        <v>15</v>
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F30" s="1">
+        <v>6.99</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="F31" s="1">
-        <v>6.99</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F32" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E36" s="6"/>
-      <c r="F36" s="6">
-        <f>SUM(F28,F30:F33)</f>
-        <v>282.97000000000003</v>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6">
+        <f>SUM(F27,F29:F32)</f>
+        <v>308.58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H26" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
-      <sortCondition ref="C1:C26"/>
+  <autoFilter ref="A1:H25" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
+      <sortCondition ref="C1:C25"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -1834,35 +1869,37 @@
     <hyperlink ref="G5" r:id="rId4" xr:uid="{9283A10A-E872-4DFA-B921-43BB3BB2A9D1}"/>
     <hyperlink ref="G4" r:id="rId5" xr:uid="{9DF5D0B0-A815-4C20-8059-E1B426A08B82}"/>
     <hyperlink ref="G7" r:id="rId6" xr:uid="{D5056138-7C85-4971-B051-7CDFD5AB73F6}"/>
-    <hyperlink ref="G16" r:id="rId7" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
+    <hyperlink ref="G17" r:id="rId7" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
     <hyperlink ref="G2" r:id="rId8" xr:uid="{0152A3F6-FE58-41D7-AB64-C8E374049A9A}"/>
     <hyperlink ref="G8" r:id="rId9" xr:uid="{75173C7D-D480-4C2D-BE5A-040CEC28705B}"/>
     <hyperlink ref="G9" r:id="rId10" xr:uid="{4EBD25A6-BC90-4F48-8400-2D5D15DB67BB}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{A1D5FB76-9E48-42F1-9287-96810421B11C}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
-    <hyperlink ref="G24" r:id="rId15" xr:uid="{A301E5AB-D96F-4BE1-B641-8D31C07525C1}"/>
-    <hyperlink ref="G25" r:id="rId16" xr:uid="{05EAFDB5-3875-46D6-B581-FDA74FFB5E3A}"/>
-    <hyperlink ref="G3" r:id="rId17" xr:uid="{9A0672E1-2100-4676-B1ED-912FF121366A}"/>
-    <hyperlink ref="G23" r:id="rId18" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
-    <hyperlink ref="G26" r:id="rId19" xr:uid="{DACE2763-167E-40B2-93F9-D48B12FF6263}"/>
-    <hyperlink ref="G11" r:id="rId20" xr:uid="{55FD34F5-30B7-4FD2-8D08-04AACC942CC8}"/>
-    <hyperlink ref="G10" r:id="rId21" xr:uid="{C54DA0C4-0210-4120-8B27-966398DA9148}"/>
-    <hyperlink ref="G6" r:id="rId22" xr:uid="{CE847A67-9E0A-4400-8F59-D5077969B9D4}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
+    <hyperlink ref="G14" r:id="rId12" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{A1D5FB76-9E48-42F1-9287-96810421B11C}"/>
+    <hyperlink ref="G16" r:id="rId14" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
+    <hyperlink ref="G24" r:id="rId15" xr:uid="{05EAFDB5-3875-46D6-B581-FDA74FFB5E3A}"/>
+    <hyperlink ref="G3" r:id="rId16" xr:uid="{9A0672E1-2100-4676-B1ED-912FF121366A}"/>
+    <hyperlink ref="G23" r:id="rId17" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
+    <hyperlink ref="G25" r:id="rId18" xr:uid="{DACE2763-167E-40B2-93F9-D48B12FF6263}"/>
+    <hyperlink ref="G10" r:id="rId19" xr:uid="{C54DA0C4-0210-4120-8B27-966398DA9148}"/>
+    <hyperlink ref="G6" r:id="rId20" xr:uid="{CE847A67-9E0A-4400-8F59-D5077969B9D4}"/>
+    <hyperlink ref="G18" r:id="rId21" xr:uid="{A7E0479F-F9D9-435A-A2C4-2AF799707B25}"/>
+    <hyperlink ref="G19" r:id="rId22" xr:uid="{7A5B59AB-0834-45BC-AEA0-D39D0530DC91}"/>
+    <hyperlink ref="G12" r:id="rId23" xr:uid="{6BF81BF1-92E9-4BA0-AA7F-2A1EF6E61064}"/>
+    <hyperlink ref="G11" r:id="rId24" xr:uid="{332262EE-BD9C-42FE-99D6-228212AB740A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
-  <legacyDrawing r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
+  <legacyDrawing r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A83F356-DA6A-40F7-B586-1DCB5C35EB75}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2257,6 +2294,78 @@
       </c>
       <c r="G17" s="2" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="F18" s="3">
+        <f>D18*E18</f>
+        <v>4.3</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F19" s="3">
+        <f>D19*E19</f>
+        <v>2.1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>29.99</v>
+      </c>
+      <c r="F20" s="3">
+        <f>D20*E20</f>
+        <v>29.99</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2275,13 +2384,205 @@
     <hyperlink ref="G15" r:id="rId12" xr:uid="{4DE7DCA4-77B8-482E-BFB8-69ABFDAB9416}"/>
     <hyperlink ref="G16" r:id="rId13" xr:uid="{E8DFC8C8-BFC9-4762-A5A9-0C0D8B61A3AD}"/>
     <hyperlink ref="G17" r:id="rId14" xr:uid="{3CC123F2-E5F2-4C35-9A60-9135FDA068E1}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{4726734D-3AB4-421F-B372-BD43B587FADD}"/>
+    <hyperlink ref="G19" r:id="rId16" xr:uid="{A301E5AB-D96F-4BE1-B641-8D31C07525C1}"/>
+    <hyperlink ref="G20" r:id="rId17" xr:uid="{55FD34F5-30B7-4FD2-8D08-04AACC942CC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId15"/>
+  <legacyDrawing r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC913892-D5D7-423D-BA26-945406C8E3F4}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>39.99</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F16" si="0">D2*E2</f>
+        <v>39.99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.95</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>7.95</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{3F898F57-F506-4D11-81DA-29A689ED0E9E}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{6CA11184-079E-4739-B886-B96A76FE3FD5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE51102-6F97-4ABD-A594-FD803A3268BE}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CB80C1-49E2-4A31-BF97-CDDECB269D89}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2320,7 +2621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5E7784-2861-42A1-B1B0-C02B10D0BF8C}">
   <dimension ref="A1:H34"/>
   <sheetViews>

--- a/reports/clslab-liquid-bom.xlsx
+++ b/reports/clslab-liquid-bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\sparks-baird\self-driving-lab-demo\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10FED44-F2DE-47FA-8F6B-D90D541E78F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8637E145-F313-4E05-BECB-715D96CB2EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bill-of-materials'!$A$1:$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bill-of-materials'!$A$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
     <author>Sterling Baird</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{154D5317-316B-4A0E-9339-DACB8F9D398A}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{154D5317-316B-4A0E-9339-DACB8F9D398A}">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{E66B4A98-6087-4C8C-A6A5-17B4570CD937}">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{E66B4A98-6087-4C8C-A6A5-17B4570CD937}">
       <text>
         <r>
           <rPr>
@@ -94,55 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{B1583AB1-11CF-4FBB-BDAF-297BA349DDB9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sterling Baird:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-20 cm also available https://www.digikey.com/en/products/detail/seeed-technology-co.,-ltd/110990027/5482567</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{0039889F-E207-4F68-AE59-28278C393A81}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sterling Baird:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Could replace with stacking headers</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F35" authorId="0" shapeId="0" xr:uid="{73BBF5A2-8AC7-47B9-BDAA-A03FE0DEB7D3}">
+    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{73BBF5A2-8AC7-47B9-BDAA-A03FE0DEB7D3}">
       <text>
         <r>
           <rPr>
@@ -273,6 +225,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{B1583AB1-11CF-4FBB-BDAF-297BA349DDB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+20 cm also available https://www.digikey.com/en/products/detail/seeed-technology-co.,-ltd/110990027/5482567</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{0039889F-E207-4F68-AE59-28278C393A81}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Could replace with stacking headers</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="132">
   <si>
     <t>Sculpting wire</t>
   </si>
@@ -678,9 +678,6 @@
     <t>Glass cuvette with sealing lid (pack of 2) (glass according to customer)</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Grove to Stemma-QT</t>
   </si>
   <si>
@@ -703,6 +700,87 @@
   </si>
   <si>
     <t>https://www.amazon.com/gp/product/B08HRZLDX3/ref=ppx_yo_dt_b_asin_title_o01_s00?ie=UTF8&amp;th=1</t>
+  </si>
+  <si>
+    <t>Super glue</t>
+  </si>
+  <si>
+    <t>Plastic cuvette (pack of 10)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07VGDLMMH</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/AUSTOR-Sandpaper-Automotive-Furniture-Finishing/dp/B08LBKD4ZG/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Spurtar-Hollow-Leather-Gaskets-Storage/dp/B07L1FBTZV/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0006HUJCQ/ref=twister_B0779BHZZH?_encoding=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Cuvette sealing lid</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Reusable-injectable-Silicone-airtight-Experiments/dp/B09DNQCMY1/</t>
+  </si>
+  <si>
+    <t>Silicone cuvette sealing lids (pack of 10)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MMLFX-Silicone-Cuvettes-Resistant-Corrosion/dp/B09SDZFDGV/</t>
+  </si>
+  <si>
+    <t>Assorted jumper wires</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07GD2BWPY</t>
+  </si>
+  <si>
+    <t>4-way power splitter</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/1352/5761223</t>
+  </si>
+  <si>
+    <t>120 grit sandpaper</t>
+  </si>
+  <si>
+    <t>Wire strippers</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Eclipse-CP-301G-ProsKit-Precision-Stripper/dp/B005JVJDIA/</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/remington-industries/20UL1007SLDBLA/11615372</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SATA-Insulated-Electricians-Screwdriver-SteelBlade/dp/B07V46JTS7/</t>
+  </si>
+  <si>
+    <t>2.5 mm slotted head screwdriver</t>
+  </si>
+  <si>
+    <t>20 AWG Electrical Wire (1.85 mm OD with insulation)</t>
+  </si>
+  <si>
+    <t>Soldering iron</t>
+  </si>
+  <si>
+    <t>amazon.com/Adjustable-Temperature-Electric-Soldering-Iron/dp/B01JZN74ZQ/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Soldering-Kit-Temperature-Desoldering-Electronics/dp/B07XKZVG8Z/</t>
+  </si>
+  <si>
+    <t>Soldering kit (iron, solder, wire stripper, mini slotted head screwdriver)</t>
+  </si>
+  <si>
+    <t>Leather hole punch (up to 4 mm)</t>
+  </si>
+  <si>
+    <t>Leather hole punch (1/8" to 5/16", preferred for 3/16" or 7/32")</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1258,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1191,26 +1269,23 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
-        <v>10.99</v>
+      <c r="E3" s="4">
+        <v>20.99</v>
       </c>
       <c r="F3" s="3">
         <f>D3*E3</f>
-        <v>10.99</v>
+        <v>20.99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1219,25 +1294,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>20.99</v>
+        <v>2.86</v>
       </c>
       <c r="F4" s="3">
         <f>D4*E4</f>
-        <v>20.99</v>
+        <v>2.86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1246,67 +1315,64 @@
         <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>7.47</v>
+        <v>9.99</v>
       </c>
       <c r="F5" s="3">
         <f>D5*E5</f>
-        <v>7.47</v>
+        <v>9.99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4">
-        <v>9.99</v>
+        <v>11.98</v>
       </c>
       <c r="F6" s="3">
         <f>D6*E6</f>
-        <v>9.99</v>
+        <v>59.900000000000006</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>11.98</v>
+        <v>9.99</v>
       </c>
       <c r="F7" s="3">
         <f>D7*E7</f>
-        <v>59.900000000000006</v>
+        <v>9.99</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1315,22 +1381,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>8.99</v>
+        <v>12.99</v>
       </c>
       <c r="F8" s="3">
         <f>D8*E8</f>
-        <v>8.99</v>
+        <v>12.99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -1339,19 +1402,19 @@
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>7.99</v>
+        <v>16.09</v>
       </c>
       <c r="F9" s="3">
         <f>D9*E9</f>
-        <v>7.99</v>
+        <v>16.09</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1360,22 +1423,19 @@
         <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>7.99</v>
+        <v>6.99</v>
       </c>
       <c r="F10" s="3">
         <f>D10*E10</f>
-        <v>7.99</v>
+        <v>6.99</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -1384,70 +1444,64 @@
         <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>29.99</v>
+        <v>6.99</v>
       </c>
       <c r="F11" s="3">
         <f>D11*E11</f>
-        <v>29.99</v>
+        <v>6.99</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
-        <v>15.95</v>
+      <c r="E12" s="4">
+        <v>10.99</v>
       </c>
       <c r="F12" s="3">
         <f>D12*E12</f>
-        <v>15.95</v>
+        <v>10.99</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
-        <v>2.58</v>
+      <c r="E13" s="4">
+        <v>8.99</v>
       </c>
       <c r="F13" s="3">
         <f>D13*E13</f>
-        <v>2.58</v>
+        <v>8.99</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1456,19 +1510,19 @@
         <v>1</v>
       </c>
       <c r="E14" s="4">
-        <v>6</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="F14" s="3">
         <f>D14*E14</f>
-        <v>6</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1477,22 +1531,22 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.43</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>15.95</v>
       </c>
       <c r="F15" s="3">
         <f>D15*E15</f>
-        <v>0.86</v>
+        <v>15.95</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1503,23 +1557,23 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="4">
-        <v>18.91</v>
+      <c r="E16" s="3">
+        <v>2.58</v>
       </c>
       <c r="F16" s="3">
         <f>D16*E16</f>
-        <v>18.91</v>
+        <v>2.58</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -1528,22 +1582,22 @@
         <v>1</v>
       </c>
       <c r="E17" s="4">
-        <v>2.95</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
         <f>D17*E17</f>
-        <v>2.95</v>
+        <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -1552,22 +1606,22 @@
         <v>2</v>
       </c>
       <c r="E18" s="4">
-        <v>2</v>
+        <v>0.43</v>
       </c>
       <c r="F18" s="3">
         <f>D18*E18</f>
-        <v>4</v>
+        <v>0.86</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -1576,22 +1630,19 @@
         <v>1</v>
       </c>
       <c r="E19" s="4">
-        <v>4.3</v>
+        <v>18.91</v>
       </c>
       <c r="F19" s="3">
         <f>D19*E19</f>
-        <v>4.3</v>
+        <v>18.91</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -1600,46 +1651,46 @@
         <v>1</v>
       </c>
       <c r="E20" s="4">
-        <v>2.1</v>
+        <v>4.95</v>
       </c>
       <c r="F20" s="3">
         <f>D20*E20</f>
-        <v>2.1</v>
+        <v>4.95</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>8.4</v>
+        <v>3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
       </c>
       <c r="F21" s="3">
         <f>D21*E21</f>
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -1647,20 +1698,20 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="3">
-        <v>1.95</v>
+      <c r="E22" s="4">
+        <v>2.1</v>
       </c>
       <c r="F22" s="3">
         <f>D22*E22</f>
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1671,20 +1722,20 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="4">
-        <v>6.9</v>
+      <c r="E23" s="3">
+        <v>8.4</v>
       </c>
       <c r="F23" s="3">
         <f>D23*E23</f>
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1695,174 +1746,135 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="4">
-        <v>2.1</v>
+      <c r="E24" s="3">
+        <v>1.95</v>
       </c>
       <c r="F24" s="3">
         <f>D24*E24</f>
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="4">
-        <v>1.95</v>
+        <v>6.9</v>
       </c>
       <c r="F25" s="3">
         <f>D25*E25</f>
-        <v>3.9</v>
+        <v>20.700000000000003</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="F26" s="3">
-        <f>D26*E26</f>
-        <v>19.989999999999998</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
-        <f>SUM(F2:F27)</f>
-        <v>269.98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <f>SUM(F2:F30)</f>
+        <v>280.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F34" s="1">
         <v>6.99</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E36" s="6"/>
-      <c r="F36" s="6">
-        <f>SUM(F28,F30:F33)</f>
-        <v>282.97000000000003</v>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6">
+        <f>SUM(F31,F33:F34)</f>
+        <v>287.01</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H26" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
-      <sortCondition ref="C1:C26"/>
+  <autoFilter ref="A1:H29" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H29">
+      <sortCondition ref="C1:C29"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G22" r:id="rId1" xr:uid="{C5F6E3A1-832E-4FD5-8BD6-FC546B0FDAB6}"/>
-    <hyperlink ref="G21" r:id="rId2" xr:uid="{B2BE2E68-1D25-4529-8255-9B059365EF39}"/>
-    <hyperlink ref="G20" r:id="rId3" xr:uid="{5854D339-2716-49B9-BE3E-FADE32F53000}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{9283A10A-E872-4DFA-B921-43BB3BB2A9D1}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{9DF5D0B0-A815-4C20-8059-E1B426A08B82}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{D5056138-7C85-4971-B051-7CDFD5AB73F6}"/>
-    <hyperlink ref="G16" r:id="rId7" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
-    <hyperlink ref="G2" r:id="rId8" xr:uid="{0152A3F6-FE58-41D7-AB64-C8E374049A9A}"/>
-    <hyperlink ref="G8" r:id="rId9" xr:uid="{75173C7D-D480-4C2D-BE5A-040CEC28705B}"/>
-    <hyperlink ref="G9" r:id="rId10" xr:uid="{4EBD25A6-BC90-4F48-8400-2D5D15DB67BB}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{A1D5FB76-9E48-42F1-9287-96810421B11C}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
-    <hyperlink ref="G24" r:id="rId15" xr:uid="{A301E5AB-D96F-4BE1-B641-8D31C07525C1}"/>
-    <hyperlink ref="G25" r:id="rId16" xr:uid="{05EAFDB5-3875-46D6-B581-FDA74FFB5E3A}"/>
-    <hyperlink ref="G3" r:id="rId17" xr:uid="{9A0672E1-2100-4676-B1ED-912FF121366A}"/>
-    <hyperlink ref="G23" r:id="rId18" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
-    <hyperlink ref="G26" r:id="rId19" xr:uid="{DACE2763-167E-40B2-93F9-D48B12FF6263}"/>
-    <hyperlink ref="G11" r:id="rId20" xr:uid="{55FD34F5-30B7-4FD2-8D08-04AACC942CC8}"/>
-    <hyperlink ref="G10" r:id="rId21" xr:uid="{C54DA0C4-0210-4120-8B27-966398DA9148}"/>
-    <hyperlink ref="G6" r:id="rId22" xr:uid="{CE847A67-9E0A-4400-8F59-D5077969B9D4}"/>
+    <hyperlink ref="G24" r:id="rId1" xr:uid="{C5F6E3A1-832E-4FD5-8BD6-FC546B0FDAB6}"/>
+    <hyperlink ref="G23" r:id="rId2" xr:uid="{B2BE2E68-1D25-4529-8255-9B059365EF39}"/>
+    <hyperlink ref="G22" r:id="rId3" xr:uid="{5854D339-2716-49B9-BE3E-FADE32F53000}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{9DF5D0B0-A815-4C20-8059-E1B426A08B82}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{D5056138-7C85-4971-B051-7CDFD5AB73F6}"/>
+    <hyperlink ref="G19" r:id="rId6" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
+    <hyperlink ref="G2" r:id="rId7" xr:uid="{0152A3F6-FE58-41D7-AB64-C8E374049A9A}"/>
+    <hyperlink ref="G15" r:id="rId8" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
+    <hyperlink ref="G16" r:id="rId9" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
+    <hyperlink ref="G17" r:id="rId10" xr:uid="{A1D5FB76-9E48-42F1-9287-96810421B11C}"/>
+    <hyperlink ref="G18" r:id="rId11" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
+    <hyperlink ref="G25" r:id="rId12" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
+    <hyperlink ref="G5" r:id="rId13" xr:uid="{CE847A67-9E0A-4400-8F59-D5077969B9D4}"/>
+    <hyperlink ref="G8" r:id="rId14" xr:uid="{144AF5F5-759F-4E3A-88EE-13D15BFE0C3D}"/>
+    <hyperlink ref="G4" r:id="rId15" xr:uid="{2ED3E1C8-999F-43C5-92EF-A1A86B17F428}"/>
+    <hyperlink ref="G10" r:id="rId16" xr:uid="{3045F596-E1FC-4E95-8F05-3577A230B8B5}"/>
+    <hyperlink ref="G20" r:id="rId17" xr:uid="{FE6399ED-A3BE-4760-BF33-77FE544C9E60}"/>
+    <hyperlink ref="G13" r:id="rId18" xr:uid="{BFEA466E-9D75-4187-B0D2-9339C28C2E2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
-  <legacyDrawing r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A83F356-DA6A-40F7-B586-1DCB5C35EB75}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2257,6 +2269,367 @@
       </c>
       <c r="G17" s="2" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>29.99</v>
+      </c>
+      <c r="F18" s="3">
+        <f>D18*E18</f>
+        <v>29.99</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F19" s="3">
+        <f>D19*E19</f>
+        <v>2.1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="F20" s="3">
+        <f>D20*E20</f>
+        <v>3.9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F21" s="3">
+        <f>D21*E21</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>7.47</v>
+      </c>
+      <c r="F22" s="3">
+        <f>D22*E22</f>
+        <v>7.47</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="F23" s="3">
+        <f>D23*E23</f>
+        <v>7.99</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="F24" s="3">
+        <f>D24*E24</f>
+        <v>7.99</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="F25" s="3">
+        <f>D25*E25</f>
+        <v>8.99</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10.99</v>
+      </c>
+      <c r="F26" s="3">
+        <f>D26*E26</f>
+        <v>10.99</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F27" s="3">
+        <f>D27*E27</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="F28" s="3">
+        <f>D28*E28</f>
+        <v>2.95</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="F29" s="3">
+        <f>D29*E29</f>
+        <v>4.3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>7.77</v>
+      </c>
+      <c r="F30" s="3">
+        <f>D30*E30</f>
+        <v>7.77</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="F31" s="3">
+        <f>D31*E31</f>
+        <v>4.95</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3.99</v>
+      </c>
+      <c r="F32" s="3">
+        <f>D32*E32</f>
+        <v>3.99</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2275,9 +2648,20 @@
     <hyperlink ref="G15" r:id="rId12" xr:uid="{4DE7DCA4-77B8-482E-BFB8-69ABFDAB9416}"/>
     <hyperlink ref="G16" r:id="rId13" xr:uid="{E8DFC8C8-BFC9-4762-A5A9-0C0D8B61A3AD}"/>
     <hyperlink ref="G17" r:id="rId14" xr:uid="{3CC123F2-E5F2-4C35-9A60-9135FDA068E1}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{55FD34F5-30B7-4FD2-8D08-04AACC942CC8}"/>
+    <hyperlink ref="G19" r:id="rId16" xr:uid="{A301E5AB-D96F-4BE1-B641-8D31C07525C1}"/>
+    <hyperlink ref="G20" r:id="rId17" xr:uid="{05EAFDB5-3875-46D6-B581-FDA74FFB5E3A}"/>
+    <hyperlink ref="G21" r:id="rId18" xr:uid="{DACE2763-167E-40B2-93F9-D48B12FF6263}"/>
+    <hyperlink ref="G22" r:id="rId19" xr:uid="{9283A10A-E872-4DFA-B921-43BB3BB2A9D1}"/>
+    <hyperlink ref="G23" r:id="rId20" xr:uid="{4EBD25A6-BC90-4F48-8400-2D5D15DB67BB}"/>
+    <hyperlink ref="G24" r:id="rId21" xr:uid="{C54DA0C4-0210-4120-8B27-966398DA9148}"/>
+    <hyperlink ref="G25" r:id="rId22" xr:uid="{75173C7D-D480-4C2D-BE5A-040CEC28705B}"/>
+    <hyperlink ref="G27" r:id="rId23" xr:uid="{D3B96166-191E-4925-B576-8152A865AF7F}"/>
+    <hyperlink ref="G28" r:id="rId24" xr:uid="{857530DA-12FF-4E18-8DF7-C2A81B84228F}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{9A0672E1-2100-4676-B1ED-912FF121366A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId15"/>
+  <legacyDrawing r:id="rId26"/>
 </worksheet>
 </file>
 

--- a/reports/clslab-liquid-bom.xlsx
+++ b/reports/clslab-liquid-bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\sparks-baird\self-driving-lab-demo\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8637E145-F313-4E05-BECB-715D96CB2EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBAD564-7D89-43A0-8859-E28019C60820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
   </bookViews>
@@ -67,6 +67,30 @@
           </rPr>
           <t xml:space="preserve">
 Maybe no air outlet needed due to use of flexible drip bags. Just need to be careful not to pressurize the system too much at any point where connections would get disconnected.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{B71B48F6-856D-4425-859E-DA9AC1024781}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Also available through Alibaba and eBay</t>
         </r>
       </text>
     </comment>
@@ -1191,7 +1215,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1273,7 @@
         <v>4.79</v>
       </c>
       <c r="F2" s="3">
-        <f>D2*E2</f>
+        <f t="shared" ref="F2:F25" si="0">D2*E2</f>
         <v>4.79</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1273,7 +1297,7 @@
         <v>20.99</v>
       </c>
       <c r="F3" s="3">
-        <f>D3*E3</f>
+        <f t="shared" si="0"/>
         <v>20.99</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1297,7 +1321,7 @@
         <v>2.86</v>
       </c>
       <c r="F4" s="3">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>2.86</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1318,7 +1342,7 @@
         <v>9.99</v>
       </c>
       <c r="F5" s="3">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1342,7 +1366,7 @@
         <v>11.98</v>
       </c>
       <c r="F6" s="3">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>59.900000000000006</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1363,7 +1387,7 @@
         <v>9.99</v>
       </c>
       <c r="F7" s="3">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1384,7 +1408,7 @@
         <v>12.99</v>
       </c>
       <c r="F8" s="3">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>12.99</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1405,7 +1429,7 @@
         <v>16.09</v>
       </c>
       <c r="F9" s="3">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>16.09</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1426,7 +1450,7 @@
         <v>6.99</v>
       </c>
       <c r="F10" s="3">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1447,7 +1471,7 @@
         <v>6.99</v>
       </c>
       <c r="F11" s="3">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1468,7 +1492,7 @@
         <v>10.99</v>
       </c>
       <c r="F12" s="3">
-        <f>D12*E12</f>
+        <f t="shared" si="0"/>
         <v>10.99</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1492,7 +1516,7 @@
         <v>8.99</v>
       </c>
       <c r="F13" s="3">
-        <f>D13*E13</f>
+        <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1513,7 +1537,7 @@
         <v>20.059999999999999</v>
       </c>
       <c r="F14" s="3">
-        <f>D14*E14</f>
+        <f t="shared" si="0"/>
         <v>20.059999999999999</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1537,7 +1561,7 @@
         <v>15.95</v>
       </c>
       <c r="F15" s="3">
-        <f>D15*E15</f>
+        <f t="shared" si="0"/>
         <v>15.95</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1561,7 +1585,7 @@
         <v>2.58</v>
       </c>
       <c r="F16" s="3">
-        <f>D16*E16</f>
+        <f t="shared" si="0"/>
         <v>2.58</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1585,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="3">
-        <f>D17*E17</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1609,7 +1633,7 @@
         <v>0.43</v>
       </c>
       <c r="F18" s="3">
-        <f>D18*E18</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1633,7 +1657,7 @@
         <v>18.91</v>
       </c>
       <c r="F19" s="3">
-        <f>D19*E19</f>
+        <f t="shared" si="0"/>
         <v>18.91</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1654,7 +1678,7 @@
         <v>4.95</v>
       </c>
       <c r="F20" s="3">
-        <f>D20*E20</f>
+        <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1678,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="3">
-        <f>D21*E21</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1702,7 +1726,7 @@
         <v>2.1</v>
       </c>
       <c r="F22" s="3">
-        <f>D22*E22</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1726,7 +1750,7 @@
         <v>8.4</v>
       </c>
       <c r="F23" s="3">
-        <f>D23*E23</f>
+        <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1750,7 +1774,7 @@
         <v>1.95</v>
       </c>
       <c r="F24" s="3">
-        <f>D24*E24</f>
+        <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1774,7 +1798,7 @@
         <v>6.9</v>
       </c>
       <c r="F25" s="3">
-        <f>D25*E25</f>
+        <f t="shared" si="0"/>
         <v>20.700000000000003</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1862,10 +1886,14 @@
     <hyperlink ref="G10" r:id="rId16" xr:uid="{3045F596-E1FC-4E95-8F05-3577A230B8B5}"/>
     <hyperlink ref="G20" r:id="rId17" xr:uid="{FE6399ED-A3BE-4760-BF33-77FE544C9E60}"/>
     <hyperlink ref="G13" r:id="rId18" xr:uid="{BFEA466E-9D75-4187-B0D2-9339C28C2E2C}"/>
+    <hyperlink ref="G9" r:id="rId19" xr:uid="{EF01DC0F-F8AB-4EDD-B512-EA3EC5D82508}"/>
+    <hyperlink ref="G7" r:id="rId20" xr:uid="{51A13458-B9B3-472F-A80F-93724CE2E51F}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{114442ED-270E-4449-9415-FCDF80A1E50C}"/>
+    <hyperlink ref="G21" r:id="rId22" xr:uid="{27CCFCFD-9EA7-46FB-AB4E-1F287FBE0A22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
-  <legacyDrawing r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -2264,7 +2292,7 @@
         <v>7.99</v>
       </c>
       <c r="F17" s="3">
-        <f>D17*E17</f>
+        <f t="shared" ref="F17:F32" si="3">D17*E17</f>
         <v>7.99</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -2288,7 +2316,7 @@
         <v>29.99</v>
       </c>
       <c r="F18" s="3">
-        <f>D18*E18</f>
+        <f t="shared" si="3"/>
         <v>29.99</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -2312,7 +2340,7 @@
         <v>2.1</v>
       </c>
       <c r="F19" s="3">
-        <f>D19*E19</f>
+        <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -2336,7 +2364,7 @@
         <v>1.95</v>
       </c>
       <c r="F20" s="3">
-        <f>D20*E20</f>
+        <f t="shared" si="3"/>
         <v>3.9</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -2360,7 +2388,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F21" s="3">
-        <f>D21*E21</f>
+        <f t="shared" si="3"/>
         <v>19.989999999999998</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -2384,7 +2412,7 @@
         <v>7.47</v>
       </c>
       <c r="F22" s="3">
-        <f>D22*E22</f>
+        <f t="shared" si="3"/>
         <v>7.47</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -2408,7 +2436,7 @@
         <v>7.99</v>
       </c>
       <c r="F23" s="3">
-        <f>D23*E23</f>
+        <f t="shared" si="3"/>
         <v>7.99</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -2429,7 +2457,7 @@
         <v>7.99</v>
       </c>
       <c r="F24" s="3">
-        <f>D24*E24</f>
+        <f t="shared" si="3"/>
         <v>7.99</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2453,7 +2481,7 @@
         <v>8.99</v>
       </c>
       <c r="F25" s="3">
-        <f>D25*E25</f>
+        <f t="shared" si="3"/>
         <v>8.99</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -2477,7 +2505,7 @@
         <v>10.99</v>
       </c>
       <c r="F26" s="3">
-        <f>D26*E26</f>
+        <f t="shared" si="3"/>
         <v>10.99</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -2498,7 +2526,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F27" s="3">
-        <f>D27*E27</f>
+        <f t="shared" si="3"/>
         <v>19.989999999999998</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -2522,7 +2550,7 @@
         <v>2.95</v>
       </c>
       <c r="F28" s="3">
-        <f>D28*E28</f>
+        <f t="shared" si="3"/>
         <v>2.95</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2546,7 +2574,7 @@
         <v>4.3</v>
       </c>
       <c r="F29" s="3">
-        <f>D29*E29</f>
+        <f t="shared" si="3"/>
         <v>4.3</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2567,7 +2595,7 @@
         <v>7.77</v>
       </c>
       <c r="F30" s="3">
-        <f>D30*E30</f>
+        <f t="shared" si="3"/>
         <v>7.77</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2588,7 +2616,7 @@
         <v>4.95</v>
       </c>
       <c r="F31" s="3">
-        <f>D31*E31</f>
+        <f t="shared" si="3"/>
         <v>4.95</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -2609,7 +2637,7 @@
         <v>3.99</v>
       </c>
       <c r="F32" s="3">
-        <f>D32*E32</f>
+        <f t="shared" si="3"/>
         <v>3.99</v>
       </c>
       <c r="G32" s="2" t="s">

--- a/reports/clslab-liquid-bom.xlsx
+++ b/reports/clslab-liquid-bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\sparks-baird\self-driving-lab-demo\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBAD564-7D89-43A0-8859-E28019C60820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A28E91-A359-464F-A626-EE0F913D0D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
   </bookViews>
@@ -91,6 +91,30 @@
           </rPr>
           <t xml:space="preserve">
 Also available through Alibaba and eBay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{2A5B555D-05B4-4A56-8AD3-3D2C36ED83EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+the 18 AWG version is probably better</t>
         </r>
       </text>
     </comment>
@@ -409,7 +433,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="133">
   <si>
     <t>Sculpting wire</t>
   </si>
@@ -762,12 +786,6 @@
     <t>https://www.amazon.com/dp/B07GD2BWPY</t>
   </si>
   <si>
-    <t>4-way power splitter</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/1352/5761223</t>
-  </si>
-  <si>
     <t>120 grit sandpaper</t>
   </si>
   <si>
@@ -805,6 +823,15 @@
   </si>
   <si>
     <t>Leather hole punch (1/8" to 5/16", preferred for 3/16" or 7/32")</t>
+  </si>
+  <si>
+    <t>2-way power splitter</t>
+  </si>
+  <si>
+    <t>128 MB memory card</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/5250/15794636</t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1300,7 @@
         <v>4.79</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F25" si="0">D2*E2</f>
+        <f t="shared" ref="F2:F18" si="0">D2*E2</f>
         <v>4.79</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1360,14 +1387,14 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
         <v>11.98</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>59.900000000000006</v>
+        <v>47.92</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>28</v>
@@ -1375,7 +1402,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1438,7 +1465,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1480,7 +1507,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -1496,36 +1523,36 @@
         <v>10.99</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="4">
-        <v>8.99</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>8.99</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1533,20 +1560,20 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="4">
-        <v>20.059999999999999</v>
+      <c r="E14" s="3">
+        <v>15.95</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>20.059999999999999</v>
+        <v>15.95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1558,19 +1585,19 @@
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>15.95</v>
+        <v>2.58</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>15.95</v>
+        <v>2.58</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1581,20 +1608,20 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="3">
-        <v>2.58</v>
+      <c r="E16" s="4">
+        <v>6</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>2.58</v>
+        <v>6</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1603,22 +1630,22 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4">
-        <v>6</v>
+        <v>0.43</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0.86</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1627,25 +1654,25 @@
         <v>21</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4">
-        <v>0.43</v>
+        <v>18.91</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>0.86</v>
+        <v>18.91</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -1654,67 +1681,70 @@
         <v>1</v>
       </c>
       <c r="E19" s="4">
-        <v>18.91</v>
+        <v>2.95</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>18.91</v>
+        <f t="shared" ref="F19" si="1">D19*E19</f>
+        <v>2.95</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>92</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4">
-        <v>4.95</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>4.95</v>
+        <f>D20*E20</f>
+        <v>4</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>D21*E21</f>
+        <v>2.1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -1722,23 +1752,20 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="4">
-        <v>2.1</v>
+      <c r="E22" s="3">
+        <v>8.4</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
+        <f>D22*E22</f>
+        <v>8.4</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
@@ -1747,14 +1774,14 @@
         <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>8.4</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>8.4</v>
+        <f>D23*E23</f>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1774,7 +1801,7 @@
         <v>1.95</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="0"/>
+        <f>D24*E24</f>
         <v>1.95</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1792,14 +1819,14 @@
         <v>21</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="4">
         <v>6.9</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>20.700000000000003</v>
+        <f>D25*E25</f>
+        <v>13.8</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>89</v>
@@ -1822,7 +1849,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3">
         <f>SUM(F2:F30)</f>
-        <v>280.02</v>
+        <v>252.34</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1858,7 +1885,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6">
         <f>SUM(F31,F33:F34)</f>
-        <v>287.01</v>
+        <v>259.33</v>
       </c>
     </row>
   </sheetData>
@@ -1869,31 +1896,30 @@
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="G24" r:id="rId1" xr:uid="{C5F6E3A1-832E-4FD5-8BD6-FC546B0FDAB6}"/>
-    <hyperlink ref="G23" r:id="rId2" xr:uid="{B2BE2E68-1D25-4529-8255-9B059365EF39}"/>
-    <hyperlink ref="G22" r:id="rId3" xr:uid="{5854D339-2716-49B9-BE3E-FADE32F53000}"/>
+    <hyperlink ref="G22" r:id="rId2" xr:uid="{B2BE2E68-1D25-4529-8255-9B059365EF39}"/>
+    <hyperlink ref="G21" r:id="rId3" xr:uid="{5854D339-2716-49B9-BE3E-FADE32F53000}"/>
     <hyperlink ref="G3" r:id="rId4" xr:uid="{9DF5D0B0-A815-4C20-8059-E1B426A08B82}"/>
     <hyperlink ref="G6" r:id="rId5" xr:uid="{D5056138-7C85-4971-B051-7CDFD5AB73F6}"/>
-    <hyperlink ref="G19" r:id="rId6" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
+    <hyperlink ref="G18" r:id="rId6" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
     <hyperlink ref="G2" r:id="rId7" xr:uid="{0152A3F6-FE58-41D7-AB64-C8E374049A9A}"/>
-    <hyperlink ref="G15" r:id="rId8" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
-    <hyperlink ref="G16" r:id="rId9" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
-    <hyperlink ref="G17" r:id="rId10" xr:uid="{A1D5FB76-9E48-42F1-9287-96810421B11C}"/>
-    <hyperlink ref="G18" r:id="rId11" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
+    <hyperlink ref="G14" r:id="rId8" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
+    <hyperlink ref="G15" r:id="rId9" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
+    <hyperlink ref="G16" r:id="rId10" xr:uid="{A1D5FB76-9E48-42F1-9287-96810421B11C}"/>
+    <hyperlink ref="G17" r:id="rId11" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
     <hyperlink ref="G25" r:id="rId12" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
     <hyperlink ref="G5" r:id="rId13" xr:uid="{CE847A67-9E0A-4400-8F59-D5077969B9D4}"/>
     <hyperlink ref="G8" r:id="rId14" xr:uid="{144AF5F5-759F-4E3A-88EE-13D15BFE0C3D}"/>
     <hyperlink ref="G4" r:id="rId15" xr:uid="{2ED3E1C8-999F-43C5-92EF-A1A86B17F428}"/>
     <hyperlink ref="G10" r:id="rId16" xr:uid="{3045F596-E1FC-4E95-8F05-3577A230B8B5}"/>
-    <hyperlink ref="G20" r:id="rId17" xr:uid="{FE6399ED-A3BE-4760-BF33-77FE544C9E60}"/>
-    <hyperlink ref="G13" r:id="rId18" xr:uid="{BFEA466E-9D75-4187-B0D2-9339C28C2E2C}"/>
-    <hyperlink ref="G9" r:id="rId19" xr:uid="{EF01DC0F-F8AB-4EDD-B512-EA3EC5D82508}"/>
-    <hyperlink ref="G7" r:id="rId20" xr:uid="{51A13458-B9B3-472F-A80F-93724CE2E51F}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{114442ED-270E-4449-9415-FCDF80A1E50C}"/>
-    <hyperlink ref="G21" r:id="rId22" xr:uid="{27CCFCFD-9EA7-46FB-AB4E-1F287FBE0A22}"/>
+    <hyperlink ref="G9" r:id="rId17" xr:uid="{EF01DC0F-F8AB-4EDD-B512-EA3EC5D82508}"/>
+    <hyperlink ref="G7" r:id="rId18" xr:uid="{51A13458-B9B3-472F-A80F-93724CE2E51F}"/>
+    <hyperlink ref="G12" r:id="rId19" xr:uid="{114442ED-270E-4449-9415-FCDF80A1E50C}"/>
+    <hyperlink ref="G20" r:id="rId20" xr:uid="{27CCFCFD-9EA7-46FB-AB4E-1F287FBE0A22}"/>
+    <hyperlink ref="G19" r:id="rId21" xr:uid="{FACC04CB-0606-4003-8BE4-65F43F99A7DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
-  <legacyDrawing r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
+  <legacyDrawing r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -1902,7 +1928,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2421,7 +2447,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2583,7 +2609,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -2599,12 +2625,12 @@
         <v>7.77</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -2620,12 +2646,12 @@
         <v>4.95</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -2641,10 +2667,34 @@
         <v>3.99</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="F33" s="3">
+        <f>D33*E33</f>
+        <v>8.99</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -2652,7 +2702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -2687,9 +2737,10 @@
     <hyperlink ref="G27" r:id="rId23" xr:uid="{D3B96166-191E-4925-B576-8152A865AF7F}"/>
     <hyperlink ref="G28" r:id="rId24" xr:uid="{857530DA-12FF-4E18-8DF7-C2A81B84228F}"/>
     <hyperlink ref="G26" r:id="rId25" xr:uid="{9A0672E1-2100-4676-B1ED-912FF121366A}"/>
+    <hyperlink ref="G33" r:id="rId26" xr:uid="{BFEA466E-9D75-4187-B0D2-9339C28C2E2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/reports/clslab-liquid-bom.xlsx
+++ b/reports/clslab-liquid-bom.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\sparks-baird\self-driving-lab-demo\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1666D6-2C55-4358-971B-B0E41D593C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342C0523-3161-40F4-96C7-AC1AAC6CCA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="22920" windowHeight="12240" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
   </bookViews>
   <sheets>
     <sheet name="bill-of-materials" sheetId="1" r:id="rId1"/>
     <sheet name="extras-alternatives" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bill-of-materials'!$B$1:$F$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bill-of-materials'!$B$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{E66B4A98-6087-4C8C-A6A5-17B4570CD937}">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{E66B4A98-6087-4C8C-A6A5-17B4570CD937}">
       <text>
         <r>
           <rPr>
@@ -113,31 +113,6 @@
           </rPr>
           <t xml:space="preserve">
 For the waste pump to have a dual function as a mixing mechanism</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{73BBF5A2-8AC7-47B9-BDAA-A03FE0DEB7D3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sterling Baird:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tax wasn't included
-</t>
         </r>
       </text>
     </comment>
@@ -300,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="165">
   <si>
     <t>Sculpting wire</t>
   </si>
@@ -341,9 +316,6 @@
     <t>Raspberry Pi Pico W</t>
   </si>
   <si>
-    <t>Shipping Cost</t>
-  </si>
-  <si>
     <t>Pishop</t>
   </si>
   <si>
@@ -527,9 +499,6 @@
     <t>1/8"-1/4" OD hose clamp</t>
   </si>
   <si>
-    <t>eCuvette</t>
-  </si>
-  <si>
     <t>Maker MDD3A</t>
   </si>
   <si>
@@ -774,9 +743,6 @@
   </si>
   <si>
     <t>https://www.homedepot.com/p/The-Home-Depot-5-Gal-Homer-Bucket-05GLHD2/100087613</t>
-  </si>
-  <si>
-    <t>Home depot</t>
   </si>
   <si>
     <t>Binding Post M2.5 1 pin PCB</t>
@@ -886,13 +852,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1209,11 +1173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,625 +1193,625 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>141</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>142</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>143</v>
-      </c>
-      <c r="F1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>4.79</v>
       </c>
-      <c r="E2" s="3">
-        <f t="shared" ref="E2:E28" si="0">C2*D2</f>
+      <c r="E2" s="2">
+        <f>C2*D2</f>
         <v>4.79</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>20.99</v>
       </c>
-      <c r="E3" s="3">
-        <f t="shared" si="0"/>
+      <c r="E3" s="2">
+        <f>C3*D3</f>
         <v>20.99</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2.86</v>
       </c>
-      <c r="E4" s="3">
-        <f t="shared" si="0"/>
+      <c r="E4" s="2">
+        <f>C4*D4</f>
         <v>2.86</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>98</v>
+      <c r="F4" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>9.99</v>
       </c>
-      <c r="E5" s="3">
-        <f t="shared" si="0"/>
+      <c r="E5" s="2">
+        <f>C5*D5</f>
         <v>9.99</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>92</v>
+      <c r="F5" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>11.98</v>
       </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
+      <c r="E6" s="2">
+        <f>C6*D6</f>
         <v>59.900000000000006</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>9.99</v>
       </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
+      <c r="E7" s="2">
+        <f>C7*D7</f>
         <v>9.99</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>97</v>
+      <c r="F7" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>12.99</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
+      <c r="E8" s="2">
+        <f>C8*D8</f>
         <v>12.99</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>95</v>
+      <c r="F8" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>16.09</v>
       </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
+      <c r="E9" s="2">
+        <f>C9*D9</f>
         <v>16.09</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>102</v>
+      <c r="F9" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>6.99</v>
       </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
+      <c r="E10" s="2">
+        <f>C10*D10</f>
         <v>6.99</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>96</v>
+      <c r="F10" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>6.99</v>
       </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
+      <c r="E11" s="2">
+        <f>C11*D11</f>
         <v>6.99</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>104</v>
+      <c r="F11" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>10.99</v>
       </c>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
+      <c r="E12" s="2">
+        <f>C12*D12</f>
         <v>10.99</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>114</v>
+      <c r="F12" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
-        <v>8.99</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>8.99</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>49</v>
+      <c r="D13" s="2">
+        <v>24.12</v>
+      </c>
+      <c r="E13" s="2">
+        <f>C13*D13</f>
+        <v>24.12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
-        <v>24.12</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>24.12</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>167</v>
+      <c r="D14" s="2">
+        <v>15.95</v>
+      </c>
+      <c r="E14" s="2">
+        <f>C14*D14</f>
+        <v>15.95</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
-        <v>15.95</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>15.95</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>21</v>
+      <c r="D15" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="E15" s="2">
+        <f>C15*D15</f>
+        <v>2.58</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
-        <v>2.58</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>2.58</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>20</v>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2">
+        <f>C16*D16</f>
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="E17" s="2">
+        <f>C17*D17</f>
+        <v>0.86</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.86</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>18.91</v>
+      </c>
+      <c r="E18" s="2">
+        <f>C18*D18</f>
+        <v>18.91</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
-        <v>18.91</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>18.91</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>60</v>
+      <c r="D19" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="E19" s="2">
+        <f>C19*D19</f>
+        <v>4.95</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4.95</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>4.95</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <f>C20*D20</f>
+        <v>6</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="E21" s="2">
+        <f>C21*D21</f>
+        <v>2.1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>31</v>
+      <c r="D22" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="E22" s="2">
+        <f>C22*D22</f>
+        <v>8.4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>17</v>
+      <c r="D23" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="E23" s="2">
+        <f>C23*D23</f>
+        <v>1.95</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1.95</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="0"/>
-        <v>1.95</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="E24" s="2">
+        <f>C24*D24</f>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="0"/>
-        <v>20.700000000000003</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>77</v>
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E25" s="2">
+        <f>C25*D25</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
         <v>156</v>
       </c>
       <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="0"/>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>157</v>
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="E26" s="2">
+        <f>C26*D26</f>
+        <v>1.8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1858,142 +1822,66 @@
         <v>159</v>
       </c>
       <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="F27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="E27" s="2">
+        <f>C27*D27</f>
+        <v>3.95</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>161</v>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>3.95</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="0"/>
-        <v>3.95</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3">
-        <f>SUM(E2:E30)</f>
-        <v>299.78999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="3">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D39" s="5"/>
-      <c r="E39" s="5">
-        <f>SUM(E31,E33:E34)</f>
-        <v>306.77999999999997</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F24" r:id="rId1" xr:uid="{C5F6E3A1-832E-4FD5-8BD6-FC546B0FDAB6}"/>
-    <hyperlink ref="F23" r:id="rId2" xr:uid="{B2BE2E68-1D25-4529-8255-9B059365EF39}"/>
-    <hyperlink ref="F22" r:id="rId3" xr:uid="{5854D339-2716-49B9-BE3E-FADE32F53000}"/>
+    <hyperlink ref="F23" r:id="rId1" xr:uid="{C5F6E3A1-832E-4FD5-8BD6-FC546B0FDAB6}"/>
+    <hyperlink ref="F22" r:id="rId2" xr:uid="{B2BE2E68-1D25-4529-8255-9B059365EF39}"/>
+    <hyperlink ref="F21" r:id="rId3" xr:uid="{5854D339-2716-49B9-BE3E-FADE32F53000}"/>
     <hyperlink ref="F3" r:id="rId4" xr:uid="{9DF5D0B0-A815-4C20-8059-E1B426A08B82}"/>
     <hyperlink ref="F6" r:id="rId5" xr:uid="{D5056138-7C85-4971-B051-7CDFD5AB73F6}"/>
-    <hyperlink ref="F19" r:id="rId6" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
+    <hyperlink ref="F18" r:id="rId6" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
     <hyperlink ref="F2" r:id="rId7" xr:uid="{0152A3F6-FE58-41D7-AB64-C8E374049A9A}"/>
-    <hyperlink ref="F15" r:id="rId8" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
-    <hyperlink ref="F16" r:id="rId9" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
-    <hyperlink ref="F17" r:id="rId10" xr:uid="{A1D5FB76-9E48-42F1-9287-96810421B11C}"/>
-    <hyperlink ref="F18" r:id="rId11" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
-    <hyperlink ref="F25" r:id="rId12" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
+    <hyperlink ref="F16" r:id="rId10" xr:uid="{A1D5FB76-9E48-42F1-9287-96810421B11C}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
+    <hyperlink ref="F24" r:id="rId12" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
     <hyperlink ref="F5" r:id="rId13" xr:uid="{CE847A67-9E0A-4400-8F59-D5077969B9D4}"/>
     <hyperlink ref="F8" r:id="rId14" xr:uid="{144AF5F5-759F-4E3A-88EE-13D15BFE0C3D}"/>
     <hyperlink ref="F4" r:id="rId15" xr:uid="{2ED3E1C8-999F-43C5-92EF-A1A86B17F428}"/>
     <hyperlink ref="F10" r:id="rId16" xr:uid="{3045F596-E1FC-4E95-8F05-3577A230B8B5}"/>
-    <hyperlink ref="F20" r:id="rId17" xr:uid="{FE6399ED-A3BE-4760-BF33-77FE544C9E60}"/>
-    <hyperlink ref="F13" r:id="rId18" xr:uid="{BFEA466E-9D75-4187-B0D2-9339C28C2E2C}"/>
-    <hyperlink ref="F9" r:id="rId19" xr:uid="{EF01DC0F-F8AB-4EDD-B512-EA3EC5D82508}"/>
-    <hyperlink ref="F7" r:id="rId20" xr:uid="{51A13458-B9B3-472F-A80F-93724CE2E51F}"/>
-    <hyperlink ref="F12" r:id="rId21" xr:uid="{114442ED-270E-4449-9415-FCDF80A1E50C}"/>
-    <hyperlink ref="F21" r:id="rId22" xr:uid="{27CCFCFD-9EA7-46FB-AB4E-1F287FBE0A22}"/>
-    <hyperlink ref="F27" r:id="rId23" xr:uid="{9E35136C-306F-4B70-8108-BB61C7C23A40}"/>
-    <hyperlink ref="F28" r:id="rId24" xr:uid="{F4046E26-D68C-4E6C-840B-4F4805F69E12}"/>
-    <hyperlink ref="F14" r:id="rId25" xr:uid="{0C41FF5B-1F3C-46B2-883B-1F9FA1730239}"/>
+    <hyperlink ref="F19" r:id="rId17" xr:uid="{FE6399ED-A3BE-4760-BF33-77FE544C9E60}"/>
+    <hyperlink ref="F9" r:id="rId18" xr:uid="{EF01DC0F-F8AB-4EDD-B512-EA3EC5D82508}"/>
+    <hyperlink ref="F7" r:id="rId19" xr:uid="{51A13458-B9B3-472F-A80F-93724CE2E51F}"/>
+    <hyperlink ref="F12" r:id="rId20" xr:uid="{114442ED-270E-4449-9415-FCDF80A1E50C}"/>
+    <hyperlink ref="F20" r:id="rId21" xr:uid="{27CCFCFD-9EA7-46FB-AB4E-1F287FBE0A22}"/>
+    <hyperlink ref="F26" r:id="rId22" xr:uid="{9E35136C-306F-4B70-8108-BB61C7C23A40}"/>
+    <hyperlink ref="F27" r:id="rId23" xr:uid="{F4046E26-D68C-4E6C-840B-4F4805F69E12}"/>
+    <hyperlink ref="F13" r:id="rId24" xr:uid="{0C41FF5B-1F3C-46B2-883B-1F9FA1730239}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
-  <legacyDrawing r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
+  <legacyDrawing r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A83F356-DA6A-40F7-B586-1DCB5C35EB75}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2003,7 +1891,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -2023,7 +1911,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2031,167 +1919,167 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>39.99</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f t="shared" ref="E2:E3" si="0">C2*D2</f>
         <v>39.99</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>7.95</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>7.95</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1.3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E9" si="1">C4*D4</f>
         <v>3.9000000000000004</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>51</v>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>23.1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>23.1</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>54</v>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1.5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>66</v>
+      <c r="F6" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>59</v>
+      <c r="F7" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>7.99</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>7.99</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>55</v>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>6.99</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>6.99</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>56</v>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2199,104 +2087,104 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>7.99</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" ref="E10:E16" si="2">C10*D10</f>
         <v>7.99</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>73</v>
+      <c r="F10" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>3.2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>27</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>39</v>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>43</v>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>3.31</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="2"/>
         <v>3.31</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>67</v>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -2304,20 +2192,20 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>7.29</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="2"/>
         <v>7.29</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>72</v>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -2325,20 +2213,20 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>8.99</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="2"/>
         <v>8.99</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>62</v>
+      <c r="F16" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -2346,20 +2234,20 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>7.99</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" ref="E17:E32" si="3">C17*D17</f>
         <v>7.99</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>69</v>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -2367,83 +2255,83 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>29.99</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="3"/>
         <v>29.99</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>90</v>
+      <c r="F18" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>2.1</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>33</v>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>1.95</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="3"/>
         <v>3.9</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>48</v>
+      <c r="F20" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>19.989999999999998</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f t="shared" si="3"/>
         <v>19.989999999999998</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>23</v>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -2451,20 +2339,20 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>7.47</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f t="shared" si="3"/>
         <v>7.47</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>25</v>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -2472,20 +2360,20 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>7.99</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f t="shared" si="3"/>
         <v>7.99</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>61</v>
+      <c r="F23" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -2493,20 +2381,20 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>7.99</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <f t="shared" si="3"/>
         <v>7.99</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>86</v>
+      <c r="F24" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -2514,15 +2402,15 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>8.99</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <f t="shared" si="3"/>
         <v>8.99</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>49</v>
+      <c r="F25" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2535,20 +2423,20 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>10.99</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f t="shared" si="3"/>
         <v>10.99</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -2556,62 +2444,62 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>19.989999999999998</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f t="shared" si="3"/>
         <v>19.989999999999998</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>100</v>
+      <c r="F27" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>2.95</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <f t="shared" si="3"/>
         <v>2.95</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>79</v>
+      <c r="F28" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>4.3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="3"/>
         <v>4.3</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>82</v>
+      <c r="F29" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -2619,20 +2507,20 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>7.77</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <f t="shared" si="3"/>
         <v>7.77</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>113</v>
+      <c r="F30" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -2640,20 +2528,20 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>4.95</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <f t="shared" si="3"/>
         <v>4.95</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>109</v>
+      <c r="F31" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -2661,31 +2549,39 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>3.99</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <f t="shared" si="3"/>
         <v>3.99</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="1">
-        <v>6</v>
+      <c r="F32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>8.99</v>
+      </c>
+      <c r="E33" s="2">
+        <f>C33*D33</f>
+        <v>8.99</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2715,8 +2611,9 @@
     <hyperlink ref="F27" r:id="rId23" xr:uid="{D3B96166-191E-4925-B576-8152A865AF7F}"/>
     <hyperlink ref="F28" r:id="rId24" xr:uid="{857530DA-12FF-4E18-8DF7-C2A81B84228F}"/>
     <hyperlink ref="F26" r:id="rId25" xr:uid="{9A0672E1-2100-4676-B1ED-912FF121366A}"/>
+    <hyperlink ref="F33" r:id="rId26" xr:uid="{BFEA466E-9D75-4187-B0D2-9339C28C2E2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
 </worksheet>
 </file>
--- a/reports/clslab-liquid-bom.xlsx
+++ b/reports/clslab-liquid-bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\sparks-baird\self-driving-lab-demo\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342C0523-3161-40F4-96C7-AC1AAC6CCA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6006C62-699E-45E8-9F99-A3FB7676E10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="22920" windowHeight="12240" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
   </bookViews>
   <sheets>
     <sheet name="bill-of-materials" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sterling Baird:</t>
         </r>
@@ -61,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Maybe no air outlet needed due to use of flexible drip bags. Just need to be careful not to pressurize the system too much at any point where connections would get disconnected.</t>
@@ -76,7 +76,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sterling Baird:</t>
         </r>
@@ -85,7 +85,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Also available through Alibaba and eBay</t>
@@ -547,9 +547,6 @@
     <t>Five-way manifold, 4mm OD push to connect</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/product/B08HRZLDX3/ref=ppx_yo_dt_b_asin_title_o01_s00?ie=UTF8&amp;th=1</t>
-  </si>
-  <si>
     <t>Super glue</t>
   </si>
   <si>
@@ -770,6 +767,9 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/remington-industries/18UL1007SLDBLA/11613404</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B08HRZLDX3</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,19 +815,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1175,48 +1162,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+      <selection pane="topRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>115</v>
-      </c>
-      <c r="B1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -1228,19 +1215,19 @@
         <v>4.79</v>
       </c>
       <c r="E2" s="2">
-        <f>C2*D2</f>
+        <f t="shared" ref="E2:E27" si="0">C2*D2</f>
         <v>4.79</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -1252,22 +1239,22 @@
         <v>20.99</v>
       </c>
       <c r="E3" s="2">
-        <f>C3*D3</f>
+        <f t="shared" si="0"/>
         <v>20.99</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1276,19 +1263,19 @@
         <v>2.86</v>
       </c>
       <c r="E4" s="2">
-        <f>C4*D4</f>
+        <f t="shared" si="0"/>
         <v>2.86</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
@@ -1300,19 +1287,19 @@
         <v>9.99</v>
       </c>
       <c r="E5" s="2">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -1324,22 +1311,22 @@
         <v>11.98</v>
       </c>
       <c r="E6" s="2">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>59.900000000000006</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1348,22 +1335,22 @@
         <v>9.99</v>
       </c>
       <c r="E7" s="2">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1372,22 +1359,22 @@
         <v>12.99</v>
       </c>
       <c r="E8" s="2">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>12.99</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1396,22 +1383,22 @@
         <v>16.09</v>
       </c>
       <c r="E9" s="2">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>16.09</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1420,22 +1407,22 @@
         <v>6.99</v>
       </c>
       <c r="E10" s="2">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1444,22 +1431,22 @@
         <v>6.99</v>
       </c>
       <c r="E11" s="2">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1468,22 +1455,22 @@
         <v>10.99</v>
       </c>
       <c r="E12" s="2">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>10.99</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1492,19 +1479,19 @@
         <v>24.12</v>
       </c>
       <c r="E13" s="2">
-        <f>C13*D13</f>
+        <f t="shared" si="0"/>
         <v>24.12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1516,19 +1503,19 @@
         <v>15.95</v>
       </c>
       <c r="E14" s="2">
-        <f>C14*D14</f>
+        <f t="shared" si="0"/>
         <v>15.95</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1540,19 +1527,19 @@
         <v>2.58</v>
       </c>
       <c r="E15" s="2">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>2.58</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1564,19 +1551,19 @@
         <v>6</v>
       </c>
       <c r="E16" s="2">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1588,19 +1575,19 @@
         <v>0.43</v>
       </c>
       <c r="E17" s="2">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -1612,22 +1599,22 @@
         <v>18.91</v>
       </c>
       <c r="E18" s="2">
-        <f>C18*D18</f>
+        <f t="shared" si="0"/>
         <v>18.91</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1636,19 +1623,19 @@
         <v>4.95</v>
       </c>
       <c r="E19" s="2">
-        <f>C19*D19</f>
+        <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1660,19 +1647,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="2">
-        <f>C20*D20</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1684,19 +1671,19 @@
         <v>2.1</v>
       </c>
       <c r="E21" s="2">
-        <f>C21*D21</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1708,19 +1695,19 @@
         <v>8.4</v>
       </c>
       <c r="E22" s="2">
-        <f>C22*D22</f>
+        <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -1732,19 +1719,19 @@
         <v>1.95</v>
       </c>
       <c r="E23" s="2">
-        <f>C23*D23</f>
+        <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
@@ -1756,22 +1743,22 @@
         <v>6.9</v>
       </c>
       <c r="E24" s="2">
-        <f>C24*D24</f>
+        <f t="shared" si="0"/>
         <v>20.700000000000003</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
         <v>153</v>
-      </c>
-      <c r="B25" t="s">
-        <v>154</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1780,22 +1767,22 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="E25" s="2">
-        <f>C25*D25</f>
+        <f t="shared" si="0"/>
         <v>9.9600000000000009</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" t="s">
         <v>155</v>
-      </c>
-      <c r="G25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" t="s">
-        <v>156</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1804,22 +1791,22 @@
         <v>0.45</v>
       </c>
       <c r="E26" s="2">
-        <f>C26*D26</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
         <v>158</v>
-      </c>
-      <c r="G26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" t="s">
-        <v>159</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1828,17 +1815,17 @@
         <v>3.95</v>
       </c>
       <c r="E27" s="2">
-        <f>C27*D27</f>
+        <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
       <c r="F29" s="1"/>
@@ -1859,16 +1846,16 @@
     <hyperlink ref="F24" r:id="rId12" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
     <hyperlink ref="F5" r:id="rId13" xr:uid="{CE847A67-9E0A-4400-8F59-D5077969B9D4}"/>
     <hyperlink ref="F8" r:id="rId14" xr:uid="{144AF5F5-759F-4E3A-88EE-13D15BFE0C3D}"/>
-    <hyperlink ref="F4" r:id="rId15" xr:uid="{2ED3E1C8-999F-43C5-92EF-A1A86B17F428}"/>
-    <hyperlink ref="F10" r:id="rId16" xr:uid="{3045F596-E1FC-4E95-8F05-3577A230B8B5}"/>
-    <hyperlink ref="F19" r:id="rId17" xr:uid="{FE6399ED-A3BE-4760-BF33-77FE544C9E60}"/>
-    <hyperlink ref="F9" r:id="rId18" xr:uid="{EF01DC0F-F8AB-4EDD-B512-EA3EC5D82508}"/>
-    <hyperlink ref="F7" r:id="rId19" xr:uid="{51A13458-B9B3-472F-A80F-93724CE2E51F}"/>
-    <hyperlink ref="F12" r:id="rId20" xr:uid="{114442ED-270E-4449-9415-FCDF80A1E50C}"/>
-    <hyperlink ref="F20" r:id="rId21" xr:uid="{27CCFCFD-9EA7-46FB-AB4E-1F287FBE0A22}"/>
-    <hyperlink ref="F26" r:id="rId22" xr:uid="{9E35136C-306F-4B70-8108-BB61C7C23A40}"/>
-    <hyperlink ref="F27" r:id="rId23" xr:uid="{F4046E26-D68C-4E6C-840B-4F4805F69E12}"/>
-    <hyperlink ref="F13" r:id="rId24" xr:uid="{0C41FF5B-1F3C-46B2-883B-1F9FA1730239}"/>
+    <hyperlink ref="F10" r:id="rId15" xr:uid="{3045F596-E1FC-4E95-8F05-3577A230B8B5}"/>
+    <hyperlink ref="F19" r:id="rId16" xr:uid="{FE6399ED-A3BE-4760-BF33-77FE544C9E60}"/>
+    <hyperlink ref="F9" r:id="rId17" xr:uid="{EF01DC0F-F8AB-4EDD-B512-EA3EC5D82508}"/>
+    <hyperlink ref="F7" r:id="rId18" xr:uid="{51A13458-B9B3-472F-A80F-93724CE2E51F}"/>
+    <hyperlink ref="F12" r:id="rId19" xr:uid="{114442ED-270E-4449-9415-FCDF80A1E50C}"/>
+    <hyperlink ref="F20" r:id="rId20" xr:uid="{27CCFCFD-9EA7-46FB-AB4E-1F287FBE0A22}"/>
+    <hyperlink ref="F26" r:id="rId21" xr:uid="{9E35136C-306F-4B70-8108-BB61C7C23A40}"/>
+    <hyperlink ref="F27" r:id="rId22" xr:uid="{F4046E26-D68C-4E6C-840B-4F4805F69E12}"/>
+    <hyperlink ref="F13" r:id="rId23" xr:uid="{0C41FF5B-1F3C-46B2-883B-1F9FA1730239}"/>
+    <hyperlink ref="F4" r:id="rId24" xr:uid="{2ED3E1C8-999F-43C5-92EF-A1A86B17F428}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -1884,14 +1871,14 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -1909,7 +1896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1930,7 +1917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1951,7 +1938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1972,7 +1959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1993,7 +1980,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2014,7 +2001,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2035,7 +2022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -2056,7 +2043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -2077,7 +2064,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -2098,7 +2085,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2119,7 +2106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2140,7 +2127,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2161,7 +2148,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -2182,7 +2169,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -2203,7 +2190,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -2224,7 +2211,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -2245,7 +2232,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -2266,7 +2253,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2287,7 +2274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2308,7 +2295,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2329,7 +2316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2350,9 +2337,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -2371,7 +2358,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -2392,7 +2379,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2413,7 +2400,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2434,9 +2421,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -2452,10 +2439,10 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -2476,7 +2463,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2497,9 +2484,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -2515,12 +2502,12 @@
         <v>7.77</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -2536,12 +2523,12 @@
         <v>4.95</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -2557,12 +2544,12 @@
         <v>3.99</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
         <v>81</v>
@@ -2581,7 +2568,7 @@
         <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/reports/clslab-liquid-bom.xlsx
+++ b/reports/clslab-liquid-bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\sparks-baird\self-driving-lab-demo\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\self-driving-lab-demo\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6006C62-699E-45E8-9F99-A3FB7676E10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043D736E-C25A-419E-AD47-E9BF1D7B3F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
   </bookViews>
   <sheets>
     <sheet name="bill-of-materials" sheetId="1" r:id="rId1"/>
@@ -777,8 +777,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -836,14 +836,15 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1160,25 +1161,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>156</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -1825,10 +1826,16 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
       <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="4">
+        <f>SUM(E2:E27)</f>
+        <v>290.8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1867,16 +1874,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A83F356-DA6A-40F7-B586-1DCB5C35EB75}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -1896,7 +1903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1917,7 +1924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1938,7 +1945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1959,7 +1966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1980,7 +1987,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2001,7 +2008,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2022,7 +2029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -2043,7 +2050,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -2064,7 +2071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -2085,7 +2092,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2106,7 +2113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2127,7 +2134,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2148,7 +2155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -2169,7 +2176,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -2190,7 +2197,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -2211,7 +2218,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -2232,7 +2239,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -2253,7 +2260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2274,7 +2281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2295,7 +2302,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2316,7 +2323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2337,7 +2344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -2358,7 +2365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -2379,7 +2386,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2400,7 +2407,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -2442,7 +2449,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -2463,7 +2470,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2484,7 +2491,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -2505,7 +2512,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -2526,7 +2533,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2547,7 +2554,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>126</v>
       </c>

--- a/reports/clslab-liquid-bom.xlsx
+++ b/reports/clslab-liquid-bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\self-driving-lab-demo\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043D736E-C25A-419E-AD47-E9BF1D7B3F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE89D58-79FF-45C7-9B24-180BC9964687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="extras-alternatives" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bill-of-materials'!$B$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bill-of-materials'!$A$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,31 @@
     <author>Sterling Baird</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{154D5317-316B-4A0E-9339-DACB8F9D398A}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{B71B48F6-856D-4425-859E-DA9AC1024781}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Also available through Alibaba and eBay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{154D5317-316B-4A0E-9339-DACB8F9D398A}">
       <text>
         <r>
           <rPr>
@@ -68,31 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{B71B48F6-856D-4425-859E-DA9AC1024781}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sterling Baird:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Also available through Alibaba and eBay</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{E66B4A98-6087-4C8C-A6A5-17B4570CD937}">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{E66B4A98-6087-4C8C-A6A5-17B4570CD937}">
       <text>
         <r>
           <rPr>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="171">
   <si>
     <t>Sculpting wire</t>
   </si>
@@ -770,6 +770,24 @@
   </si>
   <si>
     <t>https://www.amazon.com/gp/product/B08HRZLDX3</t>
+  </si>
+  <si>
+    <t>pico_w_headers</t>
+  </si>
+  <si>
+    <t>Pico W with presoldered headers</t>
+  </si>
+  <si>
+    <t>https://www.pishop.ca/product/raspberry-pi-pico-wh-pre-soldered-headers/</t>
+  </si>
+  <si>
+    <t>CLSLab:Light</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -839,19 +857,76 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -862,6 +937,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{029E2BC4-D31F-4A0F-AA7A-C7C57419C0F9}" name="Table1" displayName="Table1" ref="A1:H29" totalsRowShown="0">
+  <autoFilter ref="A1:H29" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H29">
+    <sortCondition ref="A1:A29"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{08877732-760F-4C4D-B4DF-8590FD86D35A}" name="CLSLab:Light"/>
+    <tableColumn id="2" xr3:uid="{2CD34B6B-6B76-4443-90EE-02E590CD9FE0}" name="Designator"/>
+    <tableColumn id="3" xr3:uid="{341E8280-F9C6-4368-8CF2-FA06D12092D3}" name="Component"/>
+    <tableColumn id="4" xr3:uid="{1C2B67A7-E979-4570-A5AE-3F9F8ED11D6D}" name="Number"/>
+    <tableColumn id="5" xr3:uid="{E9A68000-FD58-41C1-B10E-E71D1E23C920}" name="Cost per unit - currency"/>
+    <tableColumn id="6" xr3:uid="{CD3FB727-7F7F-483D-836A-924928CC7DB8}" name="Total cost - currency" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{E2CEB878-6AE7-4401-A20F-64F5693AA456}" name="Source of materials" dataCellStyle="Hyperlink"/>
+    <tableColumn id="8" xr3:uid="{D9E42E9B-7D5D-46E6-A150-6BB57D8FE728}" name="Material type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1161,721 +1256,779 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A19" sqref="A19"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>138</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>139</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>140</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>141</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20.99</v>
+      </c>
+      <c r="F2" s="2">
+        <f>D2*E2</f>
+        <v>20.99</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>18.91</v>
+      </c>
+      <c r="F3" s="2">
+        <f>D3*E3</f>
+        <v>18.91</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16.09</v>
+      </c>
+      <c r="F4" s="2">
+        <f>D4*E4</f>
+        <v>16.09</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12.99</v>
+      </c>
+      <c r="F5" s="2">
+        <f>D5*E5</f>
+        <v>12.99</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>11.98</v>
+      </c>
+      <c r="F6" s="2">
+        <f>D6*E6</f>
+        <v>59.900000000000006</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10.99</v>
+      </c>
+      <c r="F7" s="2">
+        <f>D7*E7</f>
+        <v>10.99</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="F8" s="2">
+        <f>D8*E8</f>
+        <v>9.99</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="F9" s="2">
+        <f>D9*E9</f>
+        <v>9.99</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.99</v>
+      </c>
+      <c r="F10" s="2">
+        <f>D10*E10</f>
+        <v>6.99</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.99</v>
+      </c>
+      <c r="F11" s="2">
+        <f>D11*E11</f>
+        <v>6.99</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="F12" s="2">
+        <f>D12*E12</f>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F13" s="2">
+        <f>D13*E13</f>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="F14" s="2">
+        <f>D14*E14</f>
+        <v>4.95</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <v>4.79</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E27" si="0">C2*D2</f>
+      <c r="F15" s="2">
+        <f>D15*E15</f>
         <v>4.79</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20.99</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>20.99</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="F16" s="2">
+        <f>D16*E16</f>
+        <v>2.86</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2.86</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.86</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>9.99</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>9.99</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>11.98</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>59.900000000000006</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="F17" s="2">
+        <f>D17*E17</f>
+        <v>2.1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <f>D18*E18</f>
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9.99</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>9.99</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>24.12</v>
+      </c>
+      <c r="F19" s="2">
+        <f>D19*E19</f>
+        <v>24.12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>15.95</v>
+      </c>
+      <c r="F20" s="2">
+        <f>D20*E20</f>
+        <v>15.95</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F21" s="2">
+        <f>D21*E21</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="F22" s="2">
+        <f>D22*E22</f>
+        <v>8.4</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="F23" s="2">
+        <f>D23*E23</f>
+        <v>3.95</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="F24" s="2">
+        <f>D24*E24</f>
+        <v>2.58</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="F25" s="2">
+        <f>D25*E25</f>
+        <v>1.95</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="F26" s="2">
+        <f>D26*E26</f>
+        <v>1.8</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>12.99</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>12.99</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>16.09</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>16.09</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6.99</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>6.99</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6.99</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>6.99</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10.99</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>10.99</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>24.12</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>24.12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>15.95</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>15.95</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2.58</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>2.58</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.86</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>18.91</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>18.91</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>4.95</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>4.95</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>1.95</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>20.700000000000003</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>3.95</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>3.95</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E30" s="4">
-        <f>SUM(E2:E27)</f>
-        <v>290.8</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F29" s="4">
+        <f>SUM(F2:F26)</f>
+        <v>293.74</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:H45">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A2="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1" xr:uid="{C5F6E3A1-832E-4FD5-8BD6-FC546B0FDAB6}"/>
-    <hyperlink ref="F22" r:id="rId2" xr:uid="{B2BE2E68-1D25-4529-8255-9B059365EF39}"/>
-    <hyperlink ref="F21" r:id="rId3" xr:uid="{5854D339-2716-49B9-BE3E-FADE32F53000}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{9DF5D0B0-A815-4C20-8059-E1B426A08B82}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{D5056138-7C85-4971-B051-7CDFD5AB73F6}"/>
-    <hyperlink ref="F18" r:id="rId6" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
-    <hyperlink ref="F2" r:id="rId7" xr:uid="{0152A3F6-FE58-41D7-AB64-C8E374049A9A}"/>
-    <hyperlink ref="F14" r:id="rId8" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
-    <hyperlink ref="F15" r:id="rId9" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
-    <hyperlink ref="F16" r:id="rId10" xr:uid="{A1D5FB76-9E48-42F1-9287-96810421B11C}"/>
-    <hyperlink ref="F17" r:id="rId11" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
-    <hyperlink ref="F24" r:id="rId12" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
-    <hyperlink ref="F5" r:id="rId13" xr:uid="{CE847A67-9E0A-4400-8F59-D5077969B9D4}"/>
-    <hyperlink ref="F8" r:id="rId14" xr:uid="{144AF5F5-759F-4E3A-88EE-13D15BFE0C3D}"/>
-    <hyperlink ref="F10" r:id="rId15" xr:uid="{3045F596-E1FC-4E95-8F05-3577A230B8B5}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{FE6399ED-A3BE-4760-BF33-77FE544C9E60}"/>
-    <hyperlink ref="F9" r:id="rId17" xr:uid="{EF01DC0F-F8AB-4EDD-B512-EA3EC5D82508}"/>
-    <hyperlink ref="F7" r:id="rId18" xr:uid="{51A13458-B9B3-472F-A80F-93724CE2E51F}"/>
-    <hyperlink ref="F12" r:id="rId19" xr:uid="{114442ED-270E-4449-9415-FCDF80A1E50C}"/>
-    <hyperlink ref="F20" r:id="rId20" xr:uid="{27CCFCFD-9EA7-46FB-AB4E-1F287FBE0A22}"/>
-    <hyperlink ref="F26" r:id="rId21" xr:uid="{9E35136C-306F-4B70-8108-BB61C7C23A40}"/>
-    <hyperlink ref="F27" r:id="rId22" xr:uid="{F4046E26-D68C-4E6C-840B-4F4805F69E12}"/>
-    <hyperlink ref="F13" r:id="rId23" xr:uid="{0C41FF5B-1F3C-46B2-883B-1F9FA1730239}"/>
-    <hyperlink ref="F4" r:id="rId24" xr:uid="{2ED3E1C8-999F-43C5-92EF-A1A86B17F428}"/>
+    <hyperlink ref="G25" r:id="rId1" xr:uid="{C5F6E3A1-832E-4FD5-8BD6-FC546B0FDAB6}"/>
+    <hyperlink ref="G22" r:id="rId2" xr:uid="{B2BE2E68-1D25-4529-8255-9B059365EF39}"/>
+    <hyperlink ref="G17" r:id="rId3" xr:uid="{5854D339-2716-49B9-BE3E-FADE32F53000}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{9DF5D0B0-A815-4C20-8059-E1B426A08B82}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{D5056138-7C85-4971-B051-7CDFD5AB73F6}"/>
+    <hyperlink ref="G3" r:id="rId6" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
+    <hyperlink ref="G15" r:id="rId7" xr:uid="{0152A3F6-FE58-41D7-AB64-C8E374049A9A}"/>
+    <hyperlink ref="G20" r:id="rId8" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
+    <hyperlink ref="G24" r:id="rId9" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
+    <hyperlink ref="G8" r:id="rId11" xr:uid="{CE847A67-9E0A-4400-8F59-D5077969B9D4}"/>
+    <hyperlink ref="G5" r:id="rId12" xr:uid="{144AF5F5-759F-4E3A-88EE-13D15BFE0C3D}"/>
+    <hyperlink ref="G10" r:id="rId13" xr:uid="{3045F596-E1FC-4E95-8F05-3577A230B8B5}"/>
+    <hyperlink ref="G14" r:id="rId14" xr:uid="{FE6399ED-A3BE-4760-BF33-77FE544C9E60}"/>
+    <hyperlink ref="G4" r:id="rId15" xr:uid="{EF01DC0F-F8AB-4EDD-B512-EA3EC5D82508}"/>
+    <hyperlink ref="G9" r:id="rId16" xr:uid="{51A13458-B9B3-472F-A80F-93724CE2E51F}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{27CCFCFD-9EA7-46FB-AB4E-1F287FBE0A22}"/>
+    <hyperlink ref="G26" r:id="rId18" xr:uid="{9E35136C-306F-4B70-8108-BB61C7C23A40}"/>
+    <hyperlink ref="G23" r:id="rId19" xr:uid="{F4046E26-D68C-4E6C-840B-4F4805F69E12}"/>
+    <hyperlink ref="G19" r:id="rId20" xr:uid="{0C41FF5B-1F3C-46B2-883B-1F9FA1730239}"/>
+    <hyperlink ref="G16" r:id="rId21" xr:uid="{2ED3E1C8-999F-43C5-92EF-A1A86B17F428}"/>
+    <hyperlink ref="G7" r:id="rId22" xr:uid="{114442ED-270E-4449-9415-FCDF80A1E50C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
-  <legacyDrawing r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
+  <tableParts count="1">
+    <tablePart r:id="rId25"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A83F356-DA6A-40F7-B586-1DCB5C35EB75}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2575,6 +2728,54 @@
         <v>48</v>
       </c>
       <c r="G33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2">
+        <f>C34*D34</f>
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="E35" s="2">
+        <f>C35*D35</f>
+        <v>0.86</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2606,8 +2807,10 @@
     <hyperlink ref="F28" r:id="rId24" xr:uid="{857530DA-12FF-4E18-8DF7-C2A81B84228F}"/>
     <hyperlink ref="F26" r:id="rId25" xr:uid="{9A0672E1-2100-4676-B1ED-912FF121366A}"/>
     <hyperlink ref="F33" r:id="rId26" xr:uid="{BFEA466E-9D75-4187-B0D2-9339C28C2E2C}"/>
+    <hyperlink ref="F34" r:id="rId27" xr:uid="{A1D5FB76-9E48-42F1-9287-96810421B11C}"/>
+    <hyperlink ref="F35" r:id="rId28" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId27"/>
+  <legacyDrawing r:id="rId29"/>
 </worksheet>
 </file>
--- a/reports/clslab-liquid-bom.xlsx
+++ b/reports/clslab-liquid-bom.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\self-driving-lab-demo\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE89D58-79FF-45C7-9B24-180BC9964687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018039DC-5F48-4A36-BF8A-0AEF87F2B580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
   </bookViews>
   <sheets>
     <sheet name="bill-of-materials" sheetId="1" r:id="rId1"/>
-    <sheet name="extras-alternatives" sheetId="3" r:id="rId2"/>
+    <sheet name="extras" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bill-of-materials'!$A$1:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">extras!$A$1:$H$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -126,7 +127,7 @@
     <author>Sterling Baird</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{40D42F2B-A357-45AF-B228-B53CA4F4BD42}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{058B418B-4FB8-4D22-8402-7AFAFE0F9C4A}">
       <text>
         <r>
           <rPr>
@@ -150,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{AC4CB2CE-578A-452E-955B-55B4D66B0275}">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{1B914C78-3DB8-4ED7-BE0B-629F28E3C4FF}">
       <text>
         <r>
           <rPr>
@@ -174,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{EE830F69-BA81-4FA0-80EB-F66E50F8DBB3}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{C7A5CCA6-7F16-416A-BF30-9709689F0B3D}">
       <text>
         <r>
           <rPr>
@@ -198,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{8BF7E175-44C1-411B-BAF5-1B809E7A0E08}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{F4ABD14C-0B03-4E29-B8C5-EFD183B9E3C4}">
       <text>
         <r>
           <rPr>
@@ -222,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{B1583AB1-11CF-4FBB-BDAF-297BA349DDB9}">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{C61F9E9E-49B7-4EDA-AB53-FBDF61532DE7}">
       <text>
         <r>
           <rPr>
@@ -246,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{0039889F-E207-4F68-AE59-28278C393A81}">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{F43A8041-822D-4939-85D5-8D73EBFCAE54}">
       <text>
         <r>
           <rPr>
@@ -275,29 +276,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="192">
   <si>
     <t>Sculpting wire</t>
   </si>
   <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Distributor</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/product/B0B11VW3NG</t>
   </si>
   <si>
@@ -316,9 +299,6 @@
     <t>Raspberry Pi Pico W</t>
   </si>
   <si>
-    <t>Pishop</t>
-  </si>
-  <si>
     <t>Raspberry Pi Pico W and loose headers</t>
   </si>
   <si>
@@ -328,9 +308,6 @@
     <t>https://www.digikey.com/en/products/detail/cytron-technologies-sdn-bhd/MAKER-PI-PICO-NB/14557835</t>
   </si>
   <si>
-    <t>Digikey</t>
-  </si>
-  <si>
     <t>DC Motor Driver Module for Raspberry Pi Pico</t>
   </si>
   <si>
@@ -340,9 +317,6 @@
     <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/4698/13162109</t>
   </si>
   <si>
-    <t>Waveshare</t>
-  </si>
-  <si>
     <t>https://www.waveshare.com/pico-motor-driver.htm</t>
   </si>
   <si>
@@ -397,9 +371,6 @@
     <t>Both ends open quartz cuvette</t>
   </si>
   <si>
-    <t>ecuvette</t>
-  </si>
-  <si>
     <t>Cuvette lid</t>
   </si>
   <si>
@@ -430,9 +401,6 @@
     <t>https://www.freshwatersystems.com/products/dmfit-two-way-divider-1-4-x-1-4-x-1-4-push-in?variant=13249525121067</t>
   </si>
   <si>
-    <t>amazon</t>
-  </si>
-  <si>
     <t>Splitter (pack of 10)</t>
   </si>
   <si>
@@ -788,6 +756,102 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>wire_strippers</t>
+  </si>
+  <si>
+    <t>slotted_screwdriver</t>
+  </si>
+  <si>
+    <t>solder_iron</t>
+  </si>
+  <si>
+    <t>grove_to_female</t>
+  </si>
+  <si>
+    <t>sculpting_wire</t>
+  </si>
+  <si>
+    <t>silicone_tubing_10ft</t>
+  </si>
+  <si>
+    <t>epoxy</t>
+  </si>
+  <si>
+    <t>dc_motor_driver</t>
+  </si>
+  <si>
+    <t>jumper_cable_20pin</t>
+  </si>
+  <si>
+    <t>grove_connectors</t>
+  </si>
+  <si>
+    <t>glass_cuvette_sealing_lid</t>
+  </si>
+  <si>
+    <t>water_splitter_4mm</t>
+  </si>
+  <si>
+    <t>ptfe_tubing_2mm_4mm</t>
+  </si>
+  <si>
+    <t>straight_union_fitting_4mm</t>
+  </si>
+  <si>
+    <t>jack_to_open_wire_2.1mm</t>
+  </si>
+  <si>
+    <t>cuvette_lid</t>
+  </si>
+  <si>
+    <t>quartz_cuvette_open_ends</t>
+  </si>
+  <si>
+    <t>grove_relay_connector</t>
+  </si>
+  <si>
+    <t>hose_clamp</t>
+  </si>
+  <si>
+    <t>push_to_connect_reducer_6mm_4mm</t>
+  </si>
+  <si>
+    <t>water_splitter_0.25in</t>
+  </si>
+  <si>
+    <t>dc_power_adapter_female</t>
+  </si>
+  <si>
+    <t>stacking_header</t>
+  </si>
+  <si>
+    <t>water_splitter_freshwater</t>
+  </si>
+  <si>
+    <t>water_splitter_amazon</t>
+  </si>
+  <si>
+    <t>pico_w_loose_headers</t>
+  </si>
+  <si>
+    <t>quartz_cuvette_2pk</t>
+  </si>
+  <si>
+    <t>power_splitter_2_way</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Sandpaper-Furniture-Finishing-Automotive-Polishing/dp/B09821SB56/</t>
+  </si>
+  <si>
+    <t>Sandpaper 120 Grit, Wet Dry Sanding Sheets 9 x 11 Inch, 12 sheets</t>
+  </si>
+  <si>
+    <t>AHOUGER 4Pcs 3.5L Plant Life Drip Watering Bag with Adjustable Flow</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/AHOUGER-Watering-Planter-Automatic-Irrigation/dp/B09G6KJ3PV/</t>
   </si>
 </sst>
 </file>
@@ -872,7 +936,49 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -920,11 +1026,22 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -951,9 +1068,29 @@
     <tableColumn id="3" xr3:uid="{341E8280-F9C6-4368-8CF2-FA06D12092D3}" name="Component"/>
     <tableColumn id="4" xr3:uid="{1C2B67A7-E979-4570-A5AE-3F9F8ED11D6D}" name="Number"/>
     <tableColumn id="5" xr3:uid="{E9A68000-FD58-41C1-B10E-E71D1E23C920}" name="Cost per unit - currency"/>
-    <tableColumn id="6" xr3:uid="{CD3FB727-7F7F-483D-836A-924928CC7DB8}" name="Total cost - currency" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{CD3FB727-7F7F-483D-836A-924928CC7DB8}" name="Total cost - currency" dataDxfId="11" dataCellStyle="Currency"/>
     <tableColumn id="7" xr3:uid="{E2CEB878-6AE7-4401-A20F-64F5693AA456}" name="Source of materials" dataCellStyle="Hyperlink"/>
     <tableColumn id="8" xr3:uid="{D9E42E9B-7D5D-46E6-A150-6BB57D8FE728}" name="Material type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94B8D685-3B2C-4D72-8753-9B23957BDCDA}" name="Table13" displayName="Table13" ref="A1:H40" totalsRowShown="0">
+  <autoFilter ref="A1:H40" xr:uid="{3B1639D2-2D5B-4478-B0D8-EB00226620F8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
+    <sortCondition ref="A1:A40"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{EE6F9C85-1C9D-45E7-B804-C9786D5E98D3}" name="CLSLab:Light"/>
+    <tableColumn id="2" xr3:uid="{54508CF3-EBAC-49ED-9DD3-BA93EF46997B}" name="Designator"/>
+    <tableColumn id="3" xr3:uid="{C47D367F-0AEE-4073-AE7F-625D4F05CC16}" name="Component"/>
+    <tableColumn id="4" xr3:uid="{5525CA8A-BDAD-41DD-A630-22C3F7E65B19}" name="Number"/>
+    <tableColumn id="5" xr3:uid="{068E2C7E-E523-437B-8FBE-38E0230373A3}" name="Cost per unit - currency"/>
+    <tableColumn id="6" xr3:uid="{D3102271-CB8F-46AC-B399-82D7A41BC5A9}" name="Total cost - currency" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{969A2974-1F6C-4DA6-B6AF-C4F4F34A797F}" name="Source of materials" dataCellStyle="Hyperlink"/>
+    <tableColumn id="8" xr3:uid="{F48A9C56-2406-45EB-91A8-0623E89EB40B}" name="Material type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1260,7 +1397,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A25" sqref="A25"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1277,66 +1414,63 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20.99</v>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>22.99</v>
       </c>
       <c r="F2" s="2">
         <f>D2*E2</f>
-        <v>20.99</v>
+        <v>45.98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1349,21 +1483,21 @@
         <v>18.91</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1376,21 +1510,21 @@
         <v>16.09</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1403,21 +1537,21 @@
         <v>12.99</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1430,21 +1564,21 @@
         <v>59.900000000000006</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1457,21 +1591,21 @@
         <v>10.99</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1484,21 +1618,21 @@
         <v>9.99</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1511,48 +1645,45 @@
         <v>9.99</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>6.99</v>
+        <v>10.97</v>
       </c>
       <c r="F10" s="2">
         <f>D10*E10</f>
-        <v>6.99</v>
+        <v>10.97</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1565,21 +1696,21 @@
         <v>6.99</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1592,21 +1723,21 @@
         <v>20.700000000000003</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1619,48 +1750,45 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>4.95</v>
+        <v>2.95</v>
       </c>
       <c r="F14" s="2">
         <f>D14*E14</f>
-        <v>4.95</v>
+        <v>2.95</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1673,21 +1801,21 @@
         <v>4.79</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1700,21 +1828,21 @@
         <v>2.86</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1727,21 +1855,21 @@
         <v>2.1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1754,21 +1882,21 @@
         <v>6</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1781,21 +1909,21 @@
         <v>24.12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1808,21 +1936,21 @@
         <v>15.95</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1835,18 +1963,18 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1859,21 +1987,21 @@
         <v>8.4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1886,21 +2014,21 @@
         <v>3.95</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1913,21 +2041,21 @@
         <v>2.58</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1940,21 +2068,21 @@
         <v>1.95</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -1967,10 +2095,10 @@
         <v>1.8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H26" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1981,12 +2109,42 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F29" s="4">
         <f>SUM(F2:F26)</f>
-        <v>293.74</v>
+        <v>320.70999999999998</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:H45">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A15:H45 A3:H9 A11:H13 E11:F26">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>$A3="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>$A14="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:E10 G10:H10">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>$A10="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$A10="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H2 B2:E2">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$A2="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$A2="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$A2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1994,823 +2152,1000 @@
     <hyperlink ref="G25" r:id="rId1" xr:uid="{C5F6E3A1-832E-4FD5-8BD6-FC546B0FDAB6}"/>
     <hyperlink ref="G22" r:id="rId2" xr:uid="{B2BE2E68-1D25-4529-8255-9B059365EF39}"/>
     <hyperlink ref="G17" r:id="rId3" xr:uid="{5854D339-2716-49B9-BE3E-FADE32F53000}"/>
-    <hyperlink ref="G2" r:id="rId4" xr:uid="{9DF5D0B0-A815-4C20-8059-E1B426A08B82}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{D5056138-7C85-4971-B051-7CDFD5AB73F6}"/>
-    <hyperlink ref="G3" r:id="rId6" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
-    <hyperlink ref="G15" r:id="rId7" xr:uid="{0152A3F6-FE58-41D7-AB64-C8E374049A9A}"/>
-    <hyperlink ref="G20" r:id="rId8" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
-    <hyperlink ref="G24" r:id="rId9" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
-    <hyperlink ref="G8" r:id="rId11" xr:uid="{CE847A67-9E0A-4400-8F59-D5077969B9D4}"/>
-    <hyperlink ref="G5" r:id="rId12" xr:uid="{144AF5F5-759F-4E3A-88EE-13D15BFE0C3D}"/>
-    <hyperlink ref="G10" r:id="rId13" xr:uid="{3045F596-E1FC-4E95-8F05-3577A230B8B5}"/>
-    <hyperlink ref="G14" r:id="rId14" xr:uid="{FE6399ED-A3BE-4760-BF33-77FE544C9E60}"/>
-    <hyperlink ref="G4" r:id="rId15" xr:uid="{EF01DC0F-F8AB-4EDD-B512-EA3EC5D82508}"/>
-    <hyperlink ref="G9" r:id="rId16" xr:uid="{51A13458-B9B3-472F-A80F-93724CE2E51F}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{27CCFCFD-9EA7-46FB-AB4E-1F287FBE0A22}"/>
-    <hyperlink ref="G26" r:id="rId18" xr:uid="{9E35136C-306F-4B70-8108-BB61C7C23A40}"/>
-    <hyperlink ref="G23" r:id="rId19" xr:uid="{F4046E26-D68C-4E6C-840B-4F4805F69E12}"/>
-    <hyperlink ref="G19" r:id="rId20" xr:uid="{0C41FF5B-1F3C-46B2-883B-1F9FA1730239}"/>
-    <hyperlink ref="G16" r:id="rId21" xr:uid="{2ED3E1C8-999F-43C5-92EF-A1A86B17F428}"/>
-    <hyperlink ref="G7" r:id="rId22" xr:uid="{114442ED-270E-4449-9415-FCDF80A1E50C}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{D5056138-7C85-4971-B051-7CDFD5AB73F6}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{68FDB5F7-38DB-4A82-9B0F-8920FBD9E2E2}"/>
+    <hyperlink ref="G15" r:id="rId6" xr:uid="{0152A3F6-FE58-41D7-AB64-C8E374049A9A}"/>
+    <hyperlink ref="G20" r:id="rId7" xr:uid="{2976C01C-06EF-45D8-BDD8-2D85223A5AF6}"/>
+    <hyperlink ref="G24" r:id="rId8" xr:uid="{5E3C4CA6-3F8C-4365-A6C1-0A55444B5309}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{E84B8222-0F2B-442C-B630-DB5345EB5421}"/>
+    <hyperlink ref="G8" r:id="rId10" xr:uid="{CE847A67-9E0A-4400-8F59-D5077969B9D4}"/>
+    <hyperlink ref="G5" r:id="rId11" xr:uid="{144AF5F5-759F-4E3A-88EE-13D15BFE0C3D}"/>
+    <hyperlink ref="G4" r:id="rId12" xr:uid="{EF01DC0F-F8AB-4EDD-B512-EA3EC5D82508}"/>
+    <hyperlink ref="G9" r:id="rId13" xr:uid="{51A13458-B9B3-472F-A80F-93724CE2E51F}"/>
+    <hyperlink ref="G18" r:id="rId14" xr:uid="{27CCFCFD-9EA7-46FB-AB4E-1F287FBE0A22}"/>
+    <hyperlink ref="G26" r:id="rId15" xr:uid="{9E35136C-306F-4B70-8108-BB61C7C23A40}"/>
+    <hyperlink ref="G23" r:id="rId16" xr:uid="{F4046E26-D68C-4E6C-840B-4F4805F69E12}"/>
+    <hyperlink ref="G19" r:id="rId17" xr:uid="{0C41FF5B-1F3C-46B2-883B-1F9FA1730239}"/>
+    <hyperlink ref="G16" r:id="rId18" xr:uid="{2ED3E1C8-999F-43C5-92EF-A1A86B17F428}"/>
+    <hyperlink ref="G7" r:id="rId19" xr:uid="{114442ED-270E-4449-9415-FCDF80A1E50C}"/>
+    <hyperlink ref="G14" r:id="rId20" xr:uid="{37561F33-C53A-46A0-946C-6963962397AD}"/>
+    <hyperlink ref="G2" r:id="rId21" xr:uid="{D97E0D36-23C0-46A8-88E1-A7CBC26C3AC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
-  <legacyDrawing r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
+  <legacyDrawing r:id="rId23"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A83F356-DA6A-40F7-B586-1DCB5C35EB75}">
-  <dimension ref="A1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DF9F76-D3FC-49B6-AE66-137E06C1E68F}">
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="58.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="F2" s="2">
+        <f>D2*E2</f>
+        <v>39.99</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="F3" s="2">
+        <f>D3*E3</f>
+        <v>7.95</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F4" s="2">
+        <f>D4*E4</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="F5" s="2">
+        <f>D5*E5</f>
+        <v>23.1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="2">
+        <f>D6*E6</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <f>D7*E7</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="F8" s="2">
+        <f>D8*E8</f>
+        <v>7.99</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.99</v>
+      </c>
+      <c r="F9" s="2">
+        <f>D9*E9</f>
+        <v>6.99</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="F10" s="2">
+        <f>D10*E10</f>
+        <v>7.99</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="F11" s="2">
+        <f>D11*E11</f>
+        <v>3.2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2">
+        <f>D12*E12</f>
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <f>D13*E13</f>
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="F14" s="2">
+        <f>D14*E14</f>
+        <v>3.31</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7.29</v>
+      </c>
+      <c r="F15" s="2">
+        <f>D15*E15</f>
+        <v>7.29</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8.99</v>
+      </c>
+      <c r="F16" s="2">
+        <f>D16*E16</f>
+        <v>8.99</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="F17" s="2">
+        <f>D17*E17</f>
+        <v>7.99</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="F18" s="2">
+        <f>D18*E18</f>
+        <v>29.99</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="F19" s="2">
+        <f>D19*E19</f>
+        <v>2.1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="F20" s="2">
+        <f>D20*E20</f>
+        <v>3.9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F21" s="2">
+        <f>D21*E21</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7.47</v>
+      </c>
+      <c r="F22" s="2">
+        <f>D22*E22</f>
+        <v>7.47</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="F23" s="2">
+        <f>D23*E23</f>
+        <v>7.99</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="F24" s="2">
+        <f>D24*E24</f>
+        <v>7.99</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10.99</v>
+      </c>
+      <c r="F25" s="2">
+        <f>D25*E25</f>
+        <v>10.99</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F26" s="2">
+        <f>D26*E26</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>20.99</v>
+      </c>
+      <c r="F27" s="2">
+        <f>D27*E27</f>
+        <v>20.99</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="F28" s="2">
+        <f>D28*E28</f>
+        <v>4.3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7.77</v>
+      </c>
+      <c r="F29" s="2">
+        <f>D29*E29</f>
+        <v>7.77</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="F30" s="2">
+        <f>D30*E30</f>
+        <v>4.95</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="F31" s="2">
+        <f>D31*E31</f>
+        <v>3.99</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8.99</v>
+      </c>
+      <c r="F32" s="2">
+        <f>D32*E32</f>
+        <v>8.99</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2">
+        <f>D33*E33</f>
+        <v>6</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="F34" s="2">
+        <f>D34*E34</f>
+        <v>0.86</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="F35" s="2">
+        <f>D35*E35</f>
+        <v>4.95</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>6.99</v>
+      </c>
+      <c r="F37" s="2">
+        <f>D37*E37</f>
+        <v>6.99</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" t="s">
         <v>137</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>39.99</v>
-      </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E3" si="0">C2*D2</f>
-        <v>39.99</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>7.95</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>7.95</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E9" si="1">C4*D4</f>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>23.1</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="1"/>
-        <v>23.1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7.99</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="1"/>
-        <v>7.99</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6.99</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>6.99</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>7.99</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" ref="E10:E16" si="2">C10*D10</f>
-        <v>7.99</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="2"/>
-        <v>3.2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3.31</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="2"/>
-        <v>3.31</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>7.29</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="2"/>
-        <v>7.29</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>8.99</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="2"/>
-        <v>8.99</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>7.99</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" ref="E17:E32" si="3">C17*D17</f>
-        <v>7.99</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>29.99</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="3"/>
-        <v>29.99</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="3"/>
-        <v>2.1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1.95</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="3"/>
-        <v>3.9</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="3"/>
-        <v>19.989999999999998</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>7.47</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="3"/>
-        <v>7.47</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>7.99</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="3"/>
-        <v>7.99</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>7.99</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="3"/>
-        <v>7.99</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>8.99</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="3"/>
-        <v>8.99</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E39" s="3"/>
+      <c r="F39" s="2">
+        <f>D39*E39</f>
         <v>0</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>10.99</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="3"/>
-        <v>10.99</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="3"/>
-        <v>19.989999999999998</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2.95</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="3"/>
-        <v>2.95</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="3"/>
-        <v>4.3</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>7.77</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="3"/>
-        <v>7.77</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>4.95</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="3"/>
-        <v>4.95</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3.99</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="3"/>
-        <v>3.99</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>8.99</v>
-      </c>
-      <c r="E33" s="2">
-        <f>C33*D33</f>
-        <v>8.99</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>6</v>
-      </c>
-      <c r="E34" s="2">
-        <f>C34*D34</f>
-        <v>6</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="E35" s="2">
-        <f>C35*D35</f>
-        <v>0.86</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" t="s">
-        <v>146</v>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F40" s="4">
+        <f>SUM(F2:F37)</f>
+        <v>344.89000000000004</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A40:H56 G39:H39 A39:E39 A28:A34 A2:A26 A35:D35 G35:H35 E2:F26 E28:F35 A37:H37 A27:H27">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>$A2="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$A39="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{07AFA779-ED68-4644-A33E-A1F31DDF7CC1}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{A5DA8DD3-AB98-42E8-B3AE-4E6819E1B4EC}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{07FD9283-54AE-4833-92BB-F78B78140EFB}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{916C66BC-B961-46E5-B199-EE47029CFC21}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{638763E9-0861-4A1D-B20B-B810BFBAEFC4}"/>
-    <hyperlink ref="F9" r:id="rId6" xr:uid="{ECDB46F1-EBB3-411C-B2AD-C38C9CB12B08}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{978E1A70-BD8B-4D1D-BD98-CC1E2572F3C0}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{C5189A0F-6A1E-4EB7-B0EE-C9F9C31F6FB6}"/>
-    <hyperlink ref="F13" r:id="rId9" xr:uid="{20BC59A6-3E21-499D-A3BE-7F4688DB7669}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{F1BA0C61-5376-465D-AB06-5E01E2179041}"/>
-    <hyperlink ref="F14" r:id="rId11" xr:uid="{44ABE6CD-4E6D-475A-842D-942166C3FA57}"/>
-    <hyperlink ref="F15" r:id="rId12" xr:uid="{4DE7DCA4-77B8-482E-BFB8-69ABFDAB9416}"/>
-    <hyperlink ref="F16" r:id="rId13" xr:uid="{E8DFC8C8-BFC9-4762-A5A9-0C0D8B61A3AD}"/>
-    <hyperlink ref="F17" r:id="rId14" xr:uid="{3CC123F2-E5F2-4C35-9A60-9135FDA068E1}"/>
-    <hyperlink ref="F18" r:id="rId15" xr:uid="{55FD34F5-30B7-4FD2-8D08-04AACC942CC8}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{A301E5AB-D96F-4BE1-B641-8D31C07525C1}"/>
-    <hyperlink ref="F20" r:id="rId17" xr:uid="{05EAFDB5-3875-46D6-B581-FDA74FFB5E3A}"/>
-    <hyperlink ref="F21" r:id="rId18" xr:uid="{DACE2763-167E-40B2-93F9-D48B12FF6263}"/>
-    <hyperlink ref="F22" r:id="rId19" xr:uid="{9283A10A-E872-4DFA-B921-43BB3BB2A9D1}"/>
-    <hyperlink ref="F23" r:id="rId20" xr:uid="{4EBD25A6-BC90-4F48-8400-2D5D15DB67BB}"/>
-    <hyperlink ref="F24" r:id="rId21" xr:uid="{C54DA0C4-0210-4120-8B27-966398DA9148}"/>
-    <hyperlink ref="F25" r:id="rId22" xr:uid="{75173C7D-D480-4C2D-BE5A-040CEC28705B}"/>
-    <hyperlink ref="F27" r:id="rId23" xr:uid="{D3B96166-191E-4925-B576-8152A865AF7F}"/>
-    <hyperlink ref="F28" r:id="rId24" xr:uid="{857530DA-12FF-4E18-8DF7-C2A81B84228F}"/>
-    <hyperlink ref="F26" r:id="rId25" xr:uid="{9A0672E1-2100-4676-B1ED-912FF121366A}"/>
-    <hyperlink ref="F33" r:id="rId26" xr:uid="{BFEA466E-9D75-4187-B0D2-9339C28C2E2C}"/>
-    <hyperlink ref="F34" r:id="rId27" xr:uid="{A1D5FB76-9E48-42F1-9287-96810421B11C}"/>
-    <hyperlink ref="F35" r:id="rId28" xr:uid="{ABA147CF-4F75-447A-A717-A1AEC4AB0096}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{FB8340EE-5DB1-45BF-B700-EEF911451C61}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{F569E00B-93FE-4224-A3E1-4EFE351FF9FE}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{EF2D723A-780B-459A-AE0B-D2CAE73741F0}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{0820405B-FF80-417A-AC5F-B951EBB3B7FA}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{9102718A-BD3B-44DA-95BE-7D1863FE221F}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{555EE6EF-DA77-4FF3-9F73-303A93DB2844}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{FC8E5874-8037-4EA5-A2C1-C27CBC8F20D8}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{96DD20F5-0478-46BB-8253-1A45B62A05E3}"/>
+    <hyperlink ref="G13" r:id="rId9" xr:uid="{9F296F62-AFBE-4E3F-AE68-1AB4AB63E7CC}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{E25B0DFD-6119-4275-8667-41A654BF0A54}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{331B9BA5-C6BF-4AA0-9BE4-3214FBC05DFC}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{68E8946A-E8E4-40FD-BC8B-429A81DE44C2}"/>
+    <hyperlink ref="G16" r:id="rId13" xr:uid="{1878BC74-B7D4-48BA-BD41-A06A16D07957}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{DD8ECB28-A1FF-4598-9195-897CE68C0C9E}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{6998130E-E9E8-4E3E-8856-1CB8F7767B66}"/>
+    <hyperlink ref="G19" r:id="rId16" xr:uid="{2A80EA26-BC05-4AE6-9CF5-B9CC3655E544}"/>
+    <hyperlink ref="G20" r:id="rId17" xr:uid="{7D1A334A-5077-4D79-BA6C-0C96EF97F3F7}"/>
+    <hyperlink ref="G21" r:id="rId18" xr:uid="{4FEA271B-44B8-4C3C-98DE-C4DD7DA68B62}"/>
+    <hyperlink ref="G22" r:id="rId19" xr:uid="{A6A27B30-8FD0-4ADA-B7FF-17C7E9B0241D}"/>
+    <hyperlink ref="G23" r:id="rId20" xr:uid="{066ACB74-13D8-46E6-AF35-006C466E63D2}"/>
+    <hyperlink ref="G24" r:id="rId21" xr:uid="{CDD7A05D-9D2B-480F-8971-354679B09556}"/>
+    <hyperlink ref="G26" r:id="rId22" xr:uid="{DCB127EF-C9F4-42B9-979C-9CE31ACF274A}"/>
+    <hyperlink ref="G25" r:id="rId23" xr:uid="{A2B19890-F9CA-465C-B3E5-115D563E8112}"/>
+    <hyperlink ref="G32" r:id="rId24" xr:uid="{8EC6A34D-9B25-4B4A-8AC9-FEA32427D413}"/>
+    <hyperlink ref="G33" r:id="rId25" xr:uid="{A21CD645-5D93-4928-88D3-A1C760354A85}"/>
+    <hyperlink ref="G34" r:id="rId26" xr:uid="{32FAA24A-5420-4770-B649-1D25340FFE63}"/>
+    <hyperlink ref="G35" r:id="rId27" xr:uid="{FE6399ED-A3BE-4760-BF33-77FE544C9E60}"/>
+    <hyperlink ref="G37" r:id="rId28" xr:uid="{3045F596-E1FC-4E95-8F05-3577A230B8B5}"/>
+    <hyperlink ref="G27" r:id="rId29" xr:uid="{636D84C2-B4D9-4BA2-A219-BA4AF500FB59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
+  <legacyDrawing r:id="rId31"/>
+  <tableParts count="1">
+    <tablePart r:id="rId32"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/reports/clslab-liquid-bom.xlsx
+++ b/reports/clslab-liquid-bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\self-driving-lab-demo\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018039DC-5F48-4A36-BF8A-0AEF87F2B580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49239151-9AD5-46B7-852F-B20B6978BF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E91E5351-9248-443C-8FD2-9FE695AF132B}"/>
   </bookViews>
@@ -90,6 +90,28 @@
           </rPr>
           <t xml:space="preserve">
 Maybe no air outlet needed due to use of flexible drip bags. Just need to be careful not to pressurize the system too much at any point where connections would get disconnected.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{810B70E4-79B9-4F10-9980-A40A8FB8AD7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Sterling Baird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Too low of quality: https://www.amazon.com/dp/B07GD2BWPY</t>
         </r>
       </text>
     </comment>
@@ -276,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="191">
   <si>
     <t>Sculpting wire</t>
   </si>
@@ -546,9 +568,6 @@
   </si>
   <si>
     <t>Assorted jumper wires</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/dp/B07GD2BWPY</t>
   </si>
   <si>
     <t>4-way power splitter</t>
@@ -862,7 +881,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,6 +916,17 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="2">
@@ -936,14 +966,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -1068,7 +1091,7 @@
     <tableColumn id="3" xr3:uid="{341E8280-F9C6-4368-8CF2-FA06D12092D3}" name="Component"/>
     <tableColumn id="4" xr3:uid="{1C2B67A7-E979-4570-A5AE-3F9F8ED11D6D}" name="Number"/>
     <tableColumn id="5" xr3:uid="{E9A68000-FD58-41C1-B10E-E71D1E23C920}" name="Cost per unit - currency"/>
-    <tableColumn id="6" xr3:uid="{CD3FB727-7F7F-483D-836A-924928CC7DB8}" name="Total cost - currency" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{CD3FB727-7F7F-483D-836A-924928CC7DB8}" name="Total cost - currency" dataDxfId="10" dataCellStyle="Currency"/>
     <tableColumn id="7" xr3:uid="{E2CEB878-6AE7-4401-A20F-64F5693AA456}" name="Source of materials" dataCellStyle="Hyperlink"/>
     <tableColumn id="8" xr3:uid="{D9E42E9B-7D5D-46E6-A150-6BB57D8FE728}" name="Material type"/>
   </tableColumns>
@@ -1088,7 +1111,7 @@
     <tableColumn id="3" xr3:uid="{C47D367F-0AEE-4073-AE7F-625D4F05CC16}" name="Component"/>
     <tableColumn id="4" xr3:uid="{5525CA8A-BDAD-41DD-A630-22C3F7E65B19}" name="Number"/>
     <tableColumn id="5" xr3:uid="{068E2C7E-E523-437B-8FBE-38E0230373A3}" name="Cost per unit - currency"/>
-    <tableColumn id="6" xr3:uid="{D3102271-CB8F-46AC-B399-82D7A41BC5A9}" name="Total cost - currency" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{D3102271-CB8F-46AC-B399-82D7A41BC5A9}" name="Total cost - currency" dataDxfId="9" dataCellStyle="Currency"/>
     <tableColumn id="7" xr3:uid="{969A2974-1F6C-4DA6-B6AF-C4F4F34A797F}" name="Source of materials" dataCellStyle="Hyperlink"/>
     <tableColumn id="8" xr3:uid="{F48A9C56-2406-45EB-91A8-0623E89EB40B}" name="Material type"/>
   </tableColumns>
@@ -1097,9 +1120,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1137,7 +1160,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1243,7 +1266,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1385,7 +1408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1397,7 +1420,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1414,39 +1437,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>128</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>130</v>
-      </c>
-      <c r="H1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1455,19 +1478,19 @@
         <v>22.99</v>
       </c>
       <c r="F2" s="2">
-        <f>D2*E2</f>
+        <f t="shared" ref="F2:F26" si="0">D2*E2</f>
         <v>45.98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
@@ -1479,22 +1502,22 @@
         <v>18.91</v>
       </c>
       <c r="F3" s="2">
-        <f>D3*E3</f>
+        <f t="shared" si="0"/>
         <v>18.91</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -1506,22 +1529,22 @@
         <v>16.09</v>
       </c>
       <c r="F4" s="2">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>16.09</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
@@ -1533,22 +1556,22 @@
         <v>12.99</v>
       </c>
       <c r="F5" s="2">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>12.99</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -1560,25 +1583,25 @@
         <v>11.98</v>
       </c>
       <c r="F6" s="2">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>59.900000000000006</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1587,22 +1610,22 @@
         <v>10.99</v>
       </c>
       <c r="F7" s="2">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>10.99</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>78</v>
@@ -1614,25 +1637,25 @@
         <v>9.99</v>
       </c>
       <c r="F8" s="2">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1641,25 +1664,25 @@
         <v>9.99</v>
       </c>
       <c r="F9" s="2">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1668,19 +1691,19 @@
         <v>10.97</v>
       </c>
       <c r="F10" s="2">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>10.97</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
         <v>89</v>
@@ -1692,22 +1715,20 @@
         <v>6.99</v>
       </c>
       <c r="F11" s="2">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -1719,25 +1740,25 @@
         <v>6.9</v>
       </c>
       <c r="F12" s="2">
-        <f>D12*E12</f>
+        <f t="shared" si="0"/>
         <v>20.700000000000003</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
         <v>141</v>
-      </c>
-      <c r="C13" t="s">
-        <v>142</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1746,22 +1767,22 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="F13" s="2">
-        <f>D13*E13</f>
+        <f t="shared" si="0"/>
         <v>9.9600000000000009</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
@@ -1773,7 +1794,7 @@
         <v>2.95</v>
       </c>
       <c r="F14" s="2">
-        <f>D14*E14</f>
+        <f t="shared" si="0"/>
         <v>2.95</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1782,10 +1803,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1797,22 +1818,22 @@
         <v>4.79</v>
       </c>
       <c r="F15" s="2">
-        <f>D15*E15</f>
+        <f t="shared" si="0"/>
         <v>4.79</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
         <v>79</v>
@@ -1824,22 +1845,22 @@
         <v>2.86</v>
       </c>
       <c r="F16" s="2">
-        <f>D16*E16</f>
+        <f t="shared" si="0"/>
         <v>2.86</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1851,22 +1872,22 @@
         <v>2.1</v>
       </c>
       <c r="F17" s="2">
-        <f>D17*E17</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
@@ -1878,25 +1899,25 @@
         <v>2</v>
       </c>
       <c r="F18" s="2">
-        <f>D18*E18</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1905,22 +1926,22 @@
         <v>24.12</v>
       </c>
       <c r="F19" s="2">
-        <f>D19*E19</f>
+        <f t="shared" si="0"/>
         <v>24.12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1932,25 +1953,25 @@
         <v>15.95</v>
       </c>
       <c r="F20" s="2">
-        <f>D20*E20</f>
+        <f t="shared" si="0"/>
         <v>15.95</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
         <v>154</v>
-      </c>
-      <c r="C21" t="s">
-        <v>155</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1959,19 +1980,19 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F21" s="2">
-        <f>D21*E21</f>
+        <f t="shared" si="0"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1983,25 +2004,25 @@
         <v>8.4</v>
       </c>
       <c r="F22" s="2">
-        <f>D22*E22</f>
+        <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2010,22 +2031,22 @@
         <v>3.95</v>
       </c>
       <c r="F23" s="2">
-        <f>D23*E23</f>
+        <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -2037,22 +2058,22 @@
         <v>2.58</v>
       </c>
       <c r="F24" s="2">
-        <f>D24*E24</f>
+        <f t="shared" si="0"/>
         <v>2.58</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
@@ -2064,25 +2085,25 @@
         <v>1.95</v>
       </c>
       <c r="F25" s="2">
-        <f>D25*E25</f>
+        <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -2091,14 +2112,14 @@
         <v>0.45</v>
       </c>
       <c r="F26" s="2">
-        <f>D26*E26</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2113,9 +2134,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A15:H45 A3:H9 A11:H13 E11:F26">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>$A3="Y"</formula>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$A2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
@@ -2128,12 +2149,12 @@
       <formula>$A10="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>$A10="Y"</formula>
+  <conditionalFormatting sqref="A3:H9 A11:H13 E11:F26 A15:H45">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$A3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H2 B2:E2">
+  <conditionalFormatting sqref="B2:E2 G2:H2">
     <cfRule type="expression" dxfId="4" priority="3">
       <formula>$A2="Y"</formula>
     </cfRule>
@@ -2143,9 +2164,9 @@
       <formula>$A2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$A2="Y"</formula>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$A10="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2203,36 +2224,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>128</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>130</v>
-      </c>
-      <c r="H1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -2244,7 +2265,7 @@
         <v>39.99</v>
       </c>
       <c r="F2" s="2">
-        <f>D2*E2</f>
+        <f t="shared" ref="F2:F35" si="0">D2*E2</f>
         <v>39.99</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2253,10 +2274,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2268,7 +2289,7 @@
         <v>7.95</v>
       </c>
       <c r="F3" s="2">
-        <f>D3*E3</f>
+        <f t="shared" si="0"/>
         <v>7.95</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2277,10 +2298,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -2292,7 +2313,7 @@
         <v>1.3</v>
       </c>
       <c r="F4" s="2">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2301,10 +2322,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -2316,7 +2337,7 @@
         <v>23.1</v>
       </c>
       <c r="F5" s="2">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2325,10 +2346,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
@@ -2340,7 +2361,7 @@
         <v>1.5</v>
       </c>
       <c r="F6" s="2">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2349,10 +2370,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -2364,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2373,10 +2394,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
@@ -2388,7 +2409,7 @@
         <v>7.99</v>
       </c>
       <c r="F8" s="2">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -2397,10 +2418,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -2412,7 +2433,7 @@
         <v>6.99</v>
       </c>
       <c r="F9" s="2">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2421,10 +2442,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
@@ -2436,7 +2457,7 @@
         <v>7.99</v>
       </c>
       <c r="F10" s="2">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -2445,10 +2466,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -2460,7 +2481,7 @@
         <v>3.2</v>
       </c>
       <c r="F11" s="2">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -2469,10 +2490,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -2484,7 +2505,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="2">
-        <f>D12*E12</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2493,10 +2514,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -2508,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="2">
-        <f>D13*E13</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2517,10 +2538,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
         <v>56</v>
@@ -2532,7 +2553,7 @@
         <v>3.31</v>
       </c>
       <c r="F14" s="2">
-        <f>D14*E14</f>
+        <f t="shared" si="0"/>
         <v>3.31</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -2541,10 +2562,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
@@ -2556,7 +2577,7 @@
         <v>7.29</v>
       </c>
       <c r="F15" s="2">
-        <f>D15*E15</f>
+        <f t="shared" si="0"/>
         <v>7.29</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -2565,10 +2586,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
@@ -2580,7 +2601,7 @@
         <v>8.99</v>
       </c>
       <c r="F16" s="2">
-        <f>D16*E16</f>
+        <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2589,10 +2610,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
         <v>58</v>
@@ -2604,7 +2625,7 @@
         <v>7.99</v>
       </c>
       <c r="F17" s="2">
-        <f>D17*E17</f>
+        <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2613,10 +2634,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
@@ -2628,7 +2649,7 @@
         <v>29.99</v>
       </c>
       <c r="F18" s="2">
-        <f>D18*E18</f>
+        <f t="shared" si="0"/>
         <v>29.99</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -2637,10 +2658,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -2652,7 +2673,7 @@
         <v>2.1</v>
       </c>
       <c r="F19" s="2">
-        <f>D19*E19</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -2661,10 +2682,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -2676,7 +2697,7 @@
         <v>1.95</v>
       </c>
       <c r="F20" s="2">
-        <f>D20*E20</f>
+        <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -2685,10 +2706,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -2700,7 +2721,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F21" s="2">
-        <f>D21*E21</f>
+        <f t="shared" si="0"/>
         <v>19.989999999999998</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -2709,10 +2730,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2724,7 +2745,7 @@
         <v>7.47</v>
       </c>
       <c r="F22" s="2">
-        <f>D22*E22</f>
+        <f t="shared" si="0"/>
         <v>7.47</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -2733,13 +2754,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2748,7 +2769,7 @@
         <v>7.99</v>
       </c>
       <c r="F23" s="2">
-        <f>D23*E23</f>
+        <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2757,10 +2778,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -2772,7 +2793,7 @@
         <v>7.99</v>
       </c>
       <c r="F24" s="2">
-        <f>D24*E24</f>
+        <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2781,10 +2802,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -2796,7 +2817,7 @@
         <v>10.99</v>
       </c>
       <c r="F25" s="2">
-        <f>D25*E25</f>
+        <f t="shared" si="0"/>
         <v>10.99</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2805,10 +2826,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
         <v>85</v>
@@ -2820,7 +2841,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F26" s="2">
-        <f>D26*E26</f>
+        <f t="shared" si="0"/>
         <v>19.989999999999998</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2829,10 +2850,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -2844,22 +2865,22 @@
         <v>20.99</v>
       </c>
       <c r="F27" s="2">
-        <f>D27*E27</f>
+        <f t="shared" si="0"/>
         <v>20.99</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -2871,7 +2892,7 @@
         <v>4.3</v>
       </c>
       <c r="F28" s="2">
-        <f>D28*E28</f>
+        <f t="shared" si="0"/>
         <v>4.3</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -2880,13 +2901,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2895,22 +2916,22 @@
         <v>7.77</v>
       </c>
       <c r="F29" s="2">
-        <f>D29*E29</f>
+        <f t="shared" si="0"/>
         <v>7.77</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2919,22 +2940,22 @@
         <v>4.95</v>
       </c>
       <c r="F30" s="2">
-        <f>D30*E30</f>
+        <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2943,19 +2964,19 @@
         <v>3.99</v>
       </c>
       <c r="F31" s="2">
-        <f>D31*E31</f>
+        <f t="shared" si="0"/>
         <v>3.99</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
         <v>70</v>
@@ -2967,22 +2988,22 @@
         <v>8.99</v>
       </c>
       <c r="F32" s="2">
-        <f>D32*E32</f>
+        <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -2994,22 +3015,22 @@
         <v>6</v>
       </c>
       <c r="F33" s="2">
-        <f>D33*E33</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
@@ -3021,25 +3042,25 @@
         <v>0.43</v>
       </c>
       <c r="F34" s="2">
-        <f>D34*E34</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3048,25 +3069,25 @@
         <v>4.95</v>
       </c>
       <c r="F35" s="2">
-        <f>D35*E35</f>
+        <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3082,7 +3103,7 @@
         <v>82</v>
       </c>
       <c r="H37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3100,7 +3121,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A40:H56 G39:H39 A39:E39 A28:A34 A2:A26 A35:D35 G35:H35 E2:F26 E28:F35 A37:H37 A27:H27">
+  <conditionalFormatting sqref="A2:A26 E2:F26 A27:H27 A28:A34 E28:F35 A35:D35 G35:H35 A37:H37 A39:E39 G39:H39 A40:H56">
     <cfRule type="expression" dxfId="1" priority="7">
       <formula>$A2="Y"</formula>
     </cfRule>
